--- a/01_input/PNEC_soil_water_list_120722.xlsx
+++ b/01_input/PNEC_soil_water_list_120722.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f304f79f068e311c/Universitaet/MASTER/MasterThesis/11_Data_Analysis_MA/01_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="268" documentId="8_{1CDD6921-98D4-4333-B61B-C2FF6EF60AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A60AD504-71D6-4101-B0C2-9D8A79165A84}"/>
+  <xr:revisionPtr revIDLastSave="282" documentId="8_{1CDD6921-98D4-4333-B61B-C2FF6EF60AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2494DF83-0D29-4739-A37E-89184B1D7D6D}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1241,240 +1241,15 @@
     <t>Pyrimethanil_M605F002</t>
   </si>
   <si>
-    <t>Acetamiprid: Acetamiprid-N-desmethyl</t>
-  </si>
-  <si>
-    <t>Azoxystrobin-O-demethyl (CyPM)</t>
-  </si>
-  <si>
-    <t>Bixafen desmethyl</t>
-  </si>
-  <si>
-    <t>captan THPI  (1,2,3,6-tetrahydrophthalimide, CAS: 85-40-5)</t>
-  </si>
-  <si>
-    <t>Carfentrazone-ethyl</t>
-  </si>
-  <si>
-    <t>Chlorothalonil 4-hydroxy</t>
-  </si>
-  <si>
-    <t>Chlorpyrifos/-methyl: TCPy</t>
-  </si>
-  <si>
-    <t>Chlorpyrifos-methyl</t>
-  </si>
-  <si>
-    <t>chlorpyrifos-methyl -desmethyl</t>
-  </si>
-  <si>
-    <t>Cyfluthrin (beta-cyfluthrin)</t>
-  </si>
-  <si>
-    <t>Cyprodinil  metabolite CGA304075</t>
-  </si>
-  <si>
-    <t>DDD o,p'</t>
-  </si>
-  <si>
-    <t>DDD p,p'</t>
-  </si>
-  <si>
-    <t>DDE p,p'</t>
-  </si>
-  <si>
-    <t>DDE, o,p'</t>
-  </si>
-  <si>
-    <t>DDT o,p'</t>
-  </si>
-  <si>
-    <t>DDT p,p'</t>
-  </si>
-  <si>
-    <t>Diflufenican AE-B107137</t>
-  </si>
-  <si>
-    <t>Dimethenamid (P)</t>
-  </si>
-  <si>
-    <t>fenbuconazole</t>
-  </si>
-  <si>
-    <t>Fipronil sulfone</t>
-  </si>
-  <si>
-    <t>Fluazifop (P) (only free)</t>
-  </si>
-  <si>
-    <t>flumioxazine</t>
-  </si>
-  <si>
-    <t>Fluopyram benzamide</t>
-  </si>
-  <si>
-    <t>Fluroxypyr (only free)</t>
-  </si>
-  <si>
-    <t>folpet</t>
-  </si>
-  <si>
-    <t>folpet PHI (Phthalimide, CAS: 85-41-6)</t>
-  </si>
-  <si>
-    <t>Haloxyfop-P (Haloxyfop-R) (free)</t>
-  </si>
-  <si>
-    <t>Imidacloprid (5-hydroxy)</t>
-  </si>
-  <si>
-    <t>Imidacloprid (desnitro-)</t>
-  </si>
-  <si>
-    <t>Kresoxim-methyl</t>
-  </si>
-  <si>
-    <t>lambda-Cyhalothrin</t>
-  </si>
-  <si>
-    <t>Lindane (gamma-HCH)</t>
-  </si>
-  <si>
-    <t>Mecoprop (P)</t>
-  </si>
-  <si>
-    <t>meptyldinocap phenol (CAS 3687-22-7)</t>
-  </si>
-  <si>
-    <t>Metalaxyl (M)</t>
-  </si>
-  <si>
-    <t>Metalaxyl Metabolite CGA 62826 (87764-37-2)</t>
-  </si>
-  <si>
-    <t>Metamitron-desamino</t>
-  </si>
-  <si>
-    <t>Methiocarb sulfon</t>
-  </si>
-  <si>
-    <t>Methiocarb sulfoxide</t>
-  </si>
-  <si>
-    <t>Metolachlor (S)</t>
-  </si>
-  <si>
-    <t>Metolachlor ethane sulfonic acid (ESA (Ref: CGA 354743))</t>
-  </si>
-  <si>
-    <t>Metolachlor oxanilic acid (OA (Ref: CGA 51202))</t>
-  </si>
-  <si>
-    <t>Metsulfuron-methyl</t>
-  </si>
-  <si>
-    <t>Napropamide (M)</t>
-  </si>
-  <si>
-    <t>Oryzalin</t>
-  </si>
-  <si>
     <t>Penconazole</t>
   </si>
   <si>
     <t>Penoxulam</t>
   </si>
   <si>
-    <t>Phosmet oxon</t>
-  </si>
-  <si>
-    <t>Piperonyl butoxide</t>
-  </si>
-  <si>
-    <t>Pirimicarb desmethyl-</t>
-  </si>
-  <si>
-    <t>Pirimiphos-methyl</t>
-  </si>
-  <si>
-    <t>Pirimiphos-methyl metabolite DEAMPY (2-diethylamino-6-methyl pyrimidin-4-ol)</t>
-  </si>
-  <si>
-    <t>Pirimiphos-methyl-desmethyl</t>
-  </si>
-  <si>
-    <t>Pirimiphos-methyl-N-desethyl</t>
-  </si>
-  <si>
-    <t>Prochloraz BTS 44595 (M201-04)</t>
-  </si>
-  <si>
-    <t>Prochloraz BTS 44596 (M201-03)</t>
-  </si>
-  <si>
-    <t>Propamocarb (hydrochloride)</t>
-  </si>
-  <si>
-    <t>Prothioconazole desthio</t>
-  </si>
-  <si>
-    <t>Pyraflufen-ethyl</t>
-  </si>
-  <si>
-    <t>Pyrethrin I</t>
-  </si>
-  <si>
-    <t>Pyrethrin II</t>
-  </si>
-  <si>
-    <t>Quizalofop (P) free acid</t>
-  </si>
-  <si>
-    <t>Spinosyn A</t>
-  </si>
-  <si>
-    <t>Spinosyn D</t>
-  </si>
-  <si>
-    <t>Spirotetramat-enol</t>
-  </si>
-  <si>
-    <t>Spirotetramat-enol-glucoside</t>
-  </si>
-  <si>
-    <t>Spirotetramat-keto-hydroxy</t>
-  </si>
-  <si>
-    <t>Spirotetramat-mono-hydroxy</t>
-  </si>
-  <si>
-    <t>tau-Fluvalinate</t>
-  </si>
-  <si>
-    <t>Terbuthylazine-desethyl</t>
-  </si>
-  <si>
-    <t>Thiencarbazone-methyl</t>
-  </si>
-  <si>
-    <t>Thiophanate-methyl</t>
-  </si>
-  <si>
-    <t>Tolylfluanid metabolite DMST (dimethylaminosulfotoluidide)</t>
-  </si>
-  <si>
-    <t>Tri-allate</t>
-  </si>
-  <si>
-    <t>Trifloxystrobin metabolite CGA 321113</t>
-  </si>
-  <si>
     <t>Zoxamid</t>
   </si>
   <si>
-    <t>X2,4-D (free)</t>
-  </si>
-  <si>
     <t>2_4_D_free</t>
   </si>
   <si>
@@ -1692,6 +1467,231 @@
   </si>
   <si>
     <t>PPP_compound_clean</t>
+  </si>
+  <si>
+    <t>Acetamiprid.N.desmethyl</t>
+  </si>
+  <si>
+    <t>Azoxystrobin.O.demethyl</t>
+  </si>
+  <si>
+    <t>Bixafen.desmethyl</t>
+  </si>
+  <si>
+    <t>Captan.THPI</t>
+  </si>
+  <si>
+    <t>Carfentrazone.ethyl</t>
+  </si>
+  <si>
+    <t>Chlorothalonil.4.hydroxy</t>
+  </si>
+  <si>
+    <t>Chlorpyrifos..methyl..TCPy</t>
+  </si>
+  <si>
+    <t>Chlorpyrifos.methyl</t>
+  </si>
+  <si>
+    <t>Chlorpyrifos.methyl..desmethyl</t>
+  </si>
+  <si>
+    <t>Cyfluthrin_beta</t>
+  </si>
+  <si>
+    <t>Cyprodinil_CGA304075</t>
+  </si>
+  <si>
+    <t>D2_4</t>
+  </si>
+  <si>
+    <t>DDD.o.p.</t>
+  </si>
+  <si>
+    <t>DDD.p.p.</t>
+  </si>
+  <si>
+    <t>DDE.o.p.</t>
+  </si>
+  <si>
+    <t>DDE.p.p.</t>
+  </si>
+  <si>
+    <t>DDT.o.p.</t>
+  </si>
+  <si>
+    <t>DDT.p.p.</t>
+  </si>
+  <si>
+    <t>Diflufenican.AE.B107137</t>
+  </si>
+  <si>
+    <t>Fipronil.sulfone</t>
+  </si>
+  <si>
+    <t>Fluazifop..P...only.free.</t>
+  </si>
+  <si>
+    <t>Flumioxazine</t>
+  </si>
+  <si>
+    <t>Fluopyram.benzamide</t>
+  </si>
+  <si>
+    <t>Fluroxypyr</t>
+  </si>
+  <si>
+    <t>Folpet.PHI</t>
+  </si>
+  <si>
+    <t>Haloxyfop_P</t>
+  </si>
+  <si>
+    <t>Imidacloprid..5.hydroxy.</t>
+  </si>
+  <si>
+    <t>Imidacloprid..desnitro..</t>
+  </si>
+  <si>
+    <t>Kresoxim.methyl</t>
+  </si>
+  <si>
+    <t>Lambda.cyhalothrin</t>
+  </si>
+  <si>
+    <t>Lindane</t>
+  </si>
+  <si>
+    <t>Mecoprop..P.</t>
+  </si>
+  <si>
+    <t>meptyldinocap.phenol</t>
+  </si>
+  <si>
+    <t>Metalaxyl.CGA.62826</t>
+  </si>
+  <si>
+    <t>Metalaxyl.M</t>
+  </si>
+  <si>
+    <t>Metamitron.desamino</t>
+  </si>
+  <si>
+    <t>Methiocarb.sulfon</t>
+  </si>
+  <si>
+    <t>Methiocarb.sulfoxide</t>
+  </si>
+  <si>
+    <t>Metolachlor..S.</t>
+  </si>
+  <si>
+    <t>Metolachlor.ethane.sulfonic.acid</t>
+  </si>
+  <si>
+    <t>Metolachlor.oxanilic.acid</t>
+  </si>
+  <si>
+    <t>Metsulfuron.methyl</t>
+  </si>
+  <si>
+    <t>Napropamide..M.</t>
+  </si>
+  <si>
+    <t>oryzalin</t>
+  </si>
+  <si>
+    <t>penconazole</t>
+  </si>
+  <si>
+    <t>penoxulam</t>
+  </si>
+  <si>
+    <t>Phosmet.oxon</t>
+  </si>
+  <si>
+    <t>Piperonyl.butoxide</t>
+  </si>
+  <si>
+    <t>Pirimicarb.desmethyl.</t>
+  </si>
+  <si>
+    <t>Pirimiphos.methyl</t>
+  </si>
+  <si>
+    <t>Pirimiphos.methyl.DEAMPY</t>
+  </si>
+  <si>
+    <t>Pirimiphos.methyl.desmethyl</t>
+  </si>
+  <si>
+    <t>Pirimiphos.methyl.N.desethyl</t>
+  </si>
+  <si>
+    <t>Prochloraz.BTS.44595</t>
+  </si>
+  <si>
+    <t>Prochloraz.BTS.44596</t>
+  </si>
+  <si>
+    <t>Propamocarb..hydrochloride.</t>
+  </si>
+  <si>
+    <t>Prothioconazole.desthio</t>
+  </si>
+  <si>
+    <t>Pyraflufen.ethyl</t>
+  </si>
+  <si>
+    <t>Pyrethrin</t>
+  </si>
+  <si>
+    <t>Pyrethrin.II</t>
+  </si>
+  <si>
+    <t>Quizalofop..P..free.acid</t>
+  </si>
+  <si>
+    <t>Spinosyn.A</t>
+  </si>
+  <si>
+    <t>Spinosyn.D</t>
+  </si>
+  <si>
+    <t>Spirotetramat.enol</t>
+  </si>
+  <si>
+    <t>Spirotetramat.enol.glucoside</t>
+  </si>
+  <si>
+    <t>Spirotetramat.keto.hydroxy</t>
+  </si>
+  <si>
+    <t>Spirotetramat.mono.hydroxy</t>
+  </si>
+  <si>
+    <t>tau.Fluvalinate</t>
+  </si>
+  <si>
+    <t>Terbuthylazine.desethyl</t>
+  </si>
+  <si>
+    <t>Thiencarbazone.methyl</t>
+  </si>
+  <si>
+    <t>Thiophanate.methyl</t>
+  </si>
+  <si>
+    <t>Tolylfluanid.metabolite.DMST</t>
+  </si>
+  <si>
+    <t>Tri.allate</t>
+  </si>
+  <si>
+    <t>Trifloxystrobin.CGA.321113</t>
+  </si>
+  <si>
+    <t>Zoxamide</t>
   </si>
 </sst>
 </file>
@@ -1868,7 +1868,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -2215,45 +2215,44 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Tabelle2"/>
-  <dimension ref="A1:Y209"/>
+  <dimension ref="A1:X209"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K1" sqref="K1:K1048576"/>
+      <selection pane="topRight" activeCell="D210" sqref="D210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="32.1328125" customWidth="1"/>
-    <col min="2" max="2" width="19.86328125" customWidth="1"/>
-    <col min="3" max="3" width="12.40625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.54296875" customWidth="1"/>
-    <col min="5" max="5" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.26953125" customWidth="1"/>
-    <col min="7" max="7" width="13.1328125" customWidth="1"/>
-    <col min="8" max="8" width="15.40625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.40625" customWidth="1"/>
-    <col min="10" max="10" width="19.86328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.86328125" customWidth="1"/>
-    <col min="12" max="12" width="27" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27" customWidth="1"/>
-    <col min="14" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="20.26953125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.26953125" customWidth="1"/>
-    <col min="18" max="18" width="15" customWidth="1"/>
-    <col min="19" max="19" width="13" customWidth="1"/>
-    <col min="20" max="20" width="2.7265625" customWidth="1"/>
-    <col min="21" max="21" width="11.40625" customWidth="1"/>
-    <col min="22" max="23" width="14.26953125" customWidth="1"/>
-    <col min="25" max="25" width="10.1328125" customWidth="1"/>
+    <col min="1" max="1" width="19.86328125" customWidth="1"/>
+    <col min="2" max="2" width="12.40625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" customWidth="1"/>
+    <col min="4" max="4" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.26953125" customWidth="1"/>
+    <col min="6" max="6" width="13.1328125" customWidth="1"/>
+    <col min="7" max="7" width="15.40625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.40625" customWidth="1"/>
+    <col min="9" max="9" width="19.86328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.86328125" customWidth="1"/>
+    <col min="11" max="11" width="27" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27" customWidth="1"/>
+    <col min="13" max="13" width="13" customWidth="1"/>
+    <col min="14" max="14" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.26953125" customWidth="1"/>
+    <col min="17" max="17" width="15" customWidth="1"/>
+    <col min="18" max="18" width="13" customWidth="1"/>
+    <col min="19" max="19" width="2.7265625" customWidth="1"/>
+    <col min="20" max="20" width="11.40625" customWidth="1"/>
+    <col min="21" max="22" width="14.26953125" customWidth="1"/>
+    <col min="24" max="24" width="10.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" ht="44.25" x14ac:dyDescent="0.75">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:24" s="1" customFormat="1" ht="177" x14ac:dyDescent="0.75">
+      <c r="A1" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>551</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>9</v>
@@ -2306,24 +2305,23 @@
       <c r="S1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="2"/>
+      <c r="T1" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="U1" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y1" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -2379,29 +2377,29 @@
       <c r="S2">
         <v>0.01</v>
       </c>
+      <c r="T2">
+        <v>12.96</v>
+      </c>
       <c r="U2">
-        <v>18.05</v>
-      </c>
-      <c r="V2">
-        <v>21.31</v>
-      </c>
-      <c r="W2" t="s">
+        <v>0.27</v>
+      </c>
+      <c r="V2" t="s">
         <v>39</v>
       </c>
+      <c r="W2">
+        <v>5</v>
+      </c>
       <c r="X2">
-        <v>5</v>
-      </c>
-      <c r="Y2">
-        <f>V2/X2</f>
-        <v>4.2619999999999996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U2/W2</f>
+        <v>5.4000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B3" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C3" t="s">
         <v>49</v>
@@ -2454,24 +2452,20 @@
       <c r="S3" t="s">
         <v>42</v>
       </c>
-      <c r="U3">
-        <v>419</v>
-      </c>
-      <c r="V3">
-        <v>28.12</v>
+      <c r="T3" t="s">
+        <v>42</v>
+      </c>
+      <c r="U3" t="s">
+        <v>42</v>
       </c>
       <c r="W3" t="s">
-        <v>39</v>
-      </c>
-      <c r="X3">
-        <v>5</v>
-      </c>
-      <c r="Y3">
-        <f>V3/X3</f>
-        <v>5.6240000000000006</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.75">
+        <v>42</v>
+      </c>
+      <c r="X3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -2531,24 +2525,24 @@
         <f>R4/Q4</f>
         <v>5.0000000000000002E-5</v>
       </c>
+      <c r="T4">
+        <v>80.400000000000006</v>
+      </c>
       <c r="U4">
-        <v>28.8</v>
-      </c>
-      <c r="V4">
-        <v>10</v>
-      </c>
-      <c r="W4" t="s">
+        <v>45</v>
+      </c>
+      <c r="V4" t="s">
         <v>39</v>
       </c>
+      <c r="W4">
+        <v>5</v>
+      </c>
       <c r="X4">
-        <v>5</v>
-      </c>
-      <c r="Y4">
-        <f>V4/X4</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U4/W4</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -2608,24 +2602,24 @@
         <f>R5/Q5</f>
         <v>8.7999999999999992E-4</v>
       </c>
+      <c r="T5">
+        <v>19.7</v>
+      </c>
       <c r="U5">
-        <v>12.96</v>
-      </c>
-      <c r="V5">
-        <v>0.27</v>
-      </c>
-      <c r="W5" t="s">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="V5" t="s">
         <v>39</v>
       </c>
+      <c r="W5">
+        <v>5</v>
+      </c>
       <c r="X5">
-        <v>5</v>
-      </c>
-      <c r="Y5">
-        <f>V5/X5</f>
-        <v>5.4000000000000006E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U5/W5</f>
+        <v>4.08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -2684,20 +2678,24 @@
       <c r="S6">
         <v>1.2E-2</v>
       </c>
-      <c r="U6" t="s">
-        <v>42</v>
+      <c r="T6">
+        <v>419</v>
+      </c>
+      <c r="U6">
+        <v>28.12</v>
       </c>
       <c r="V6" t="s">
-        <v>42</v>
-      </c>
-      <c r="X6" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.75">
+        <v>39</v>
+      </c>
+      <c r="W6">
+        <v>5</v>
+      </c>
+      <c r="X6">
+        <f>U6/W6</f>
+        <v>5.6240000000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>56</v>
       </c>
@@ -2756,29 +2754,29 @@
       <c r="S7">
         <v>0.01</v>
       </c>
+      <c r="T7">
+        <v>29</v>
+      </c>
       <c r="U7">
-        <v>80.400000000000006</v>
-      </c>
-      <c r="V7">
-        <v>45</v>
-      </c>
-      <c r="W7" t="s">
-        <v>39</v>
+        <v>79</v>
+      </c>
+      <c r="V7" t="s">
+        <v>3</v>
+      </c>
+      <c r="W7">
+        <v>10</v>
       </c>
       <c r="X7">
-        <v>5</v>
-      </c>
-      <c r="Y7">
-        <f>V7/X7</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U7/W7</f>
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
+        <v>475</v>
+      </c>
+      <c r="B8" t="s">
         <v>60</v>
-      </c>
-      <c r="B8" t="s">
-        <v>550</v>
       </c>
       <c r="C8" t="s">
         <v>61</v>
@@ -2833,24 +2831,24 @@
         <f>R8/Q8</f>
         <v>1.5999999999999999E-5</v>
       </c>
+      <c r="T8" t="s">
+        <v>37</v>
+      </c>
       <c r="U8">
-        <v>19.7</v>
-      </c>
-      <c r="V8">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="W8" t="s">
-        <v>39</v>
+        <v>1000</v>
+      </c>
+      <c r="V8" t="s">
+        <v>3</v>
+      </c>
+      <c r="W8">
+        <v>10</v>
       </c>
       <c r="X8">
-        <v>5</v>
-      </c>
-      <c r="Y8">
-        <f t="shared" ref="Y8:Y70" si="0">V8/X8</f>
-        <v>4.08</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U8/W8</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>62</v>
       </c>
@@ -2906,29 +2904,29 @@
       <c r="S9">
         <v>4.3999999999999994E-3</v>
       </c>
+      <c r="T9">
+        <v>262</v>
+      </c>
       <c r="U9">
-        <v>29</v>
-      </c>
-      <c r="V9">
-        <v>79</v>
-      </c>
-      <c r="W9" t="s">
         <v>3</v>
       </c>
+      <c r="V9" t="s">
+        <v>39</v>
+      </c>
+      <c r="W9">
+        <v>5</v>
+      </c>
       <c r="X9">
-        <v>10</v>
-      </c>
-      <c r="Y9">
-        <f t="shared" si="0"/>
-        <v>7.9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U9/W9</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B10" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C10" t="s">
         <v>64</v>
@@ -2982,24 +2980,24 @@
         <f>R10/Q10</f>
         <v>4.07E-2</v>
       </c>
-      <c r="U10" t="s">
-        <v>37</v>
-      </c>
-      <c r="V10">
+      <c r="T10" t="s">
+        <v>37</v>
+      </c>
+      <c r="U10">
         <v>1000</v>
       </c>
-      <c r="W10" t="s">
+      <c r="V10" t="s">
         <v>3</v>
       </c>
+      <c r="W10">
+        <v>10</v>
+      </c>
       <c r="X10">
-        <v>10</v>
-      </c>
-      <c r="Y10">
-        <f t="shared" si="0"/>
+        <f>U10/W10</f>
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>65</v>
       </c>
@@ -3055,24 +3053,24 @@
       <c r="S11">
         <v>2.57</v>
       </c>
+      <c r="T11">
+        <v>7.5</v>
+      </c>
       <c r="U11">
-        <v>262</v>
-      </c>
-      <c r="V11">
-        <v>3</v>
-      </c>
-      <c r="W11" t="s">
+        <v>1000</v>
+      </c>
+      <c r="V11" t="s">
         <v>39</v>
       </c>
+      <c r="W11">
+        <v>5</v>
+      </c>
       <c r="X11">
-        <v>5</v>
-      </c>
-      <c r="Y11">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" ht="16" x14ac:dyDescent="0.8">
+        <f>U11/W11</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="16" x14ac:dyDescent="0.8">
       <c r="A12" t="s">
         <v>68</v>
       </c>
@@ -3132,24 +3130,24 @@
         <f>R12/Q12</f>
         <v>1.3E-7</v>
       </c>
-      <c r="U12" t="s">
-        <v>37</v>
-      </c>
-      <c r="V12">
-        <v>1000</v>
-      </c>
-      <c r="W12" t="s">
-        <v>3</v>
+      <c r="T12">
+        <v>86.8</v>
+      </c>
+      <c r="U12">
+        <v>1.0649999999999999</v>
+      </c>
+      <c r="V12" t="s">
+        <v>39</v>
+      </c>
+      <c r="W12">
+        <v>5</v>
       </c>
       <c r="X12">
-        <v>10</v>
-      </c>
-      <c r="Y12">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U12/W12</f>
+        <v>0.21299999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>70</v>
       </c>
@@ -3209,29 +3207,29 @@
         <f>R13/Q13</f>
         <v>9.2E-5</v>
       </c>
+      <c r="T13">
+        <v>254</v>
+      </c>
       <c r="U13">
-        <v>7.5</v>
-      </c>
-      <c r="V13">
-        <v>1000</v>
-      </c>
-      <c r="W13" t="s">
+        <v>7.74</v>
+      </c>
+      <c r="V13" t="s">
         <v>39</v>
       </c>
+      <c r="W13">
+        <v>5</v>
+      </c>
       <c r="X13">
-        <v>5</v>
-      </c>
-      <c r="Y13">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U13/W13</f>
+        <v>1.548</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B14" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C14" t="s">
         <v>74</v>
@@ -3284,28 +3282,27 @@
       <c r="S14" t="s">
         <v>42</v>
       </c>
-      <c r="U14">
-        <v>86.8</v>
-      </c>
-      <c r="V14">
-        <v>1.0649999999999999</v>
+      <c r="T14" t="s">
+        <v>42</v>
+      </c>
+      <c r="U14" t="s">
+        <v>42</v>
+      </c>
+      <c r="V14" t="s">
+        <v>42</v>
       </c>
       <c r="W14" t="s">
-        <v>39</v>
-      </c>
-      <c r="X14">
-        <v>5</v>
-      </c>
-      <c r="Y14">
-        <f t="shared" si="0"/>
-        <v>0.21299999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.75">
-      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="X14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.75">
+      <c r="A15" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" t="s">
         <v>75</v>
       </c>
       <c r="C15" t="s">
@@ -3360,24 +3357,24 @@
       <c r="S15" s="3">
         <v>2.5000000000000001E-3</v>
       </c>
+      <c r="T15">
+        <v>254</v>
+      </c>
       <c r="U15">
-        <v>254</v>
-      </c>
-      <c r="V15">
-        <v>7.74</v>
-      </c>
-      <c r="W15" t="s">
+        <v>1.1970000000000001</v>
+      </c>
+      <c r="V15" t="s">
         <v>39</v>
       </c>
+      <c r="W15">
+        <v>5</v>
+      </c>
       <c r="X15">
-        <v>5</v>
-      </c>
-      <c r="Y15">
-        <f t="shared" si="0"/>
-        <v>1.548</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U15/W15</f>
+        <v>0.2394</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -3436,23 +3433,24 @@
       <c r="S16" s="14">
         <v>0.2</v>
       </c>
-      <c r="U16" t="s">
-        <v>42</v>
+      <c r="T16">
+        <v>8</v>
+      </c>
+      <c r="U16">
+        <v>4.5</v>
       </c>
       <c r="V16" t="s">
-        <v>42</v>
-      </c>
-      <c r="W16" t="s">
-        <v>42</v>
-      </c>
-      <c r="X16" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.75">
+        <v>39</v>
+      </c>
+      <c r="W16">
+        <v>5</v>
+      </c>
+      <c r="X16">
+        <f>U16/W16</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>79</v>
       </c>
@@ -3512,29 +3510,29 @@
         <f>R17/Q17</f>
         <v>1.7999999999999999E-2</v>
       </c>
+      <c r="T17">
+        <v>3.7</v>
+      </c>
       <c r="U17">
-        <v>254</v>
-      </c>
-      <c r="V17">
-        <v>1.1970000000000001</v>
-      </c>
-      <c r="W17" t="s">
+        <v>6.1</v>
+      </c>
+      <c r="V17" t="s">
         <v>39</v>
       </c>
+      <c r="W17">
+        <v>5</v>
+      </c>
       <c r="X17">
-        <v>5</v>
-      </c>
-      <c r="Y17">
-        <f t="shared" si="0"/>
-        <v>0.2394</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U17/W17</f>
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B18" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C18" t="s">
         <v>82</v>
@@ -3587,24 +3585,24 @@
       <c r="S18" t="s">
         <v>42</v>
       </c>
+      <c r="T18">
+        <v>15.6</v>
+      </c>
       <c r="U18">
-        <v>8</v>
-      </c>
-      <c r="V18">
-        <v>4.5</v>
-      </c>
-      <c r="W18" t="s">
+        <v>117</v>
+      </c>
+      <c r="V18" t="s">
         <v>39</v>
       </c>
+      <c r="W18">
+        <v>5</v>
+      </c>
       <c r="X18">
-        <v>5</v>
-      </c>
-      <c r="Y18">
-        <f t="shared" si="0"/>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U18/W18</f>
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>83</v>
       </c>
@@ -3664,29 +3662,29 @@
         <f>R19/Q19</f>
         <v>1.5E-5</v>
       </c>
+      <c r="T19">
+        <v>22</v>
+      </c>
       <c r="U19">
-        <v>3.7</v>
-      </c>
-      <c r="V19">
-        <v>6.1</v>
-      </c>
-      <c r="W19" t="s">
+        <v>1</v>
+      </c>
+      <c r="V19" t="s">
         <v>39</v>
       </c>
+      <c r="W19">
+        <v>5</v>
+      </c>
       <c r="X19">
-        <v>5</v>
-      </c>
-      <c r="Y19">
-        <f t="shared" si="0"/>
-        <v>1.22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U19/W19</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
+        <v>475</v>
+      </c>
+      <c r="B20" t="s">
         <v>85</v>
-      </c>
-      <c r="B20" t="s">
-        <v>550</v>
       </c>
       <c r="C20" t="s">
         <v>86</v>
@@ -3741,29 +3739,29 @@
         <f>R20/Q20</f>
         <v>2.7E-4</v>
       </c>
+      <c r="T20">
+        <v>8.1999999999999993</v>
+      </c>
       <c r="U20">
-        <v>15.6</v>
-      </c>
-      <c r="V20">
-        <v>117</v>
-      </c>
-      <c r="W20" t="s">
+        <v>17.72</v>
+      </c>
+      <c r="V20" t="s">
         <v>39</v>
       </c>
+      <c r="W20">
+        <v>5</v>
+      </c>
       <c r="X20">
-        <v>5</v>
-      </c>
-      <c r="Y20">
-        <f t="shared" si="0"/>
-        <v>23.4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U20/W20</f>
+        <v>3.5439999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B21" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C21" t="s">
         <v>87</v>
@@ -3818,24 +3816,24 @@
         <f>R21/Q21</f>
         <v>5.7000000000000003E-5</v>
       </c>
+      <c r="T21">
+        <v>0.5</v>
+      </c>
       <c r="U21">
-        <v>22</v>
-      </c>
-      <c r="V21">
-        <v>1</v>
-      </c>
-      <c r="W21" t="s">
+        <v>17.72</v>
+      </c>
+      <c r="V21" t="s">
         <v>39</v>
       </c>
+      <c r="W21">
+        <v>5</v>
+      </c>
       <c r="X21">
-        <v>5</v>
-      </c>
-      <c r="Y21">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U21/W21</f>
+        <v>3.5439999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>88</v>
       </c>
@@ -3894,28 +3892,28 @@
       <c r="S22" s="3">
         <v>4.0000000000000003E-5</v>
       </c>
+      <c r="T22">
+        <v>204</v>
+      </c>
       <c r="U22">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="V22">
-        <v>17.72</v>
-      </c>
-      <c r="W22" t="s">
+        <v>0.39</v>
+      </c>
+      <c r="V22" t="s">
         <v>39</v>
       </c>
+      <c r="W22">
+        <v>5</v>
+      </c>
       <c r="X22">
-        <v>5</v>
-      </c>
-      <c r="Y22">
-        <f t="shared" si="0"/>
-        <v>3.5439999999999996</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.75">
-      <c r="A23" t="s">
+        <f>U22/W22</f>
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.75">
+      <c r="A23" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" t="s">
         <v>90</v>
       </c>
       <c r="C23" t="s">
@@ -3971,24 +3969,24 @@
         <f>R23/Q23</f>
         <v>7.2999999999999995E-2</v>
       </c>
+      <c r="T23">
+        <v>18.600000000000001</v>
+      </c>
       <c r="U23">
-        <v>0.5</v>
-      </c>
-      <c r="V23">
-        <v>17.72</v>
-      </c>
-      <c r="W23" t="s">
+        <v>1000</v>
+      </c>
+      <c r="V23" t="s">
         <v>39</v>
       </c>
+      <c r="W23">
+        <v>5</v>
+      </c>
       <c r="X23">
-        <v>5</v>
-      </c>
-      <c r="Y23">
-        <f t="shared" si="0"/>
-        <v>3.5439999999999996</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U23/W23</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>92</v>
       </c>
@@ -4048,29 +4046,29 @@
         <f>R24/Q24</f>
         <v>8.9999999999999998E-4</v>
       </c>
+      <c r="T24">
+        <v>17.899999999999999</v>
+      </c>
       <c r="U24">
-        <v>204</v>
-      </c>
-      <c r="V24">
-        <v>0.39</v>
-      </c>
-      <c r="W24" t="s">
+        <v>18</v>
+      </c>
+      <c r="V24" t="s">
         <v>39</v>
       </c>
+      <c r="W24">
+        <v>5</v>
+      </c>
       <c r="X24">
-        <v>5</v>
-      </c>
-      <c r="Y24">
-        <f t="shared" si="0"/>
-        <v>7.8E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U24/W24</f>
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="B25" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C25" t="s">
         <v>94</v>
@@ -4123,24 +4121,23 @@
       <c r="S25" t="s">
         <v>42</v>
       </c>
-      <c r="U25">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="V25">
-        <v>1000</v>
+      <c r="T25" t="s">
+        <v>42</v>
+      </c>
+      <c r="U25" t="s">
+        <v>42</v>
+      </c>
+      <c r="V25" t="s">
+        <v>42</v>
       </c>
       <c r="W25" t="s">
-        <v>39</v>
-      </c>
-      <c r="X25">
-        <v>5</v>
-      </c>
-      <c r="Y25">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.75">
+        <v>42</v>
+      </c>
+      <c r="X25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
         <v>95</v>
       </c>
@@ -4200,24 +4197,24 @@
         <f>R26/Q26</f>
         <v>0.04</v>
       </c>
+      <c r="T26">
+        <v>12.5</v>
+      </c>
       <c r="U26">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="V26">
-        <v>18</v>
-      </c>
-      <c r="W26" t="s">
+        <v>31.25</v>
+      </c>
+      <c r="V26" t="s">
         <v>39</v>
       </c>
+      <c r="W26">
+        <v>5</v>
+      </c>
       <c r="X26">
-        <v>5</v>
-      </c>
-      <c r="Y26">
-        <f t="shared" si="0"/>
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U26/W26</f>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
         <v>97</v>
       </c>
@@ -4277,23 +4274,24 @@
         <f>R27/Q27</f>
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="U27" t="s">
-        <v>42</v>
+      <c r="T27" t="s">
+        <v>37</v>
+      </c>
+      <c r="U27">
+        <v>17.2</v>
       </c>
       <c r="V27" t="s">
-        <v>42</v>
-      </c>
-      <c r="W27" t="s">
-        <v>42</v>
-      </c>
-      <c r="X27" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.75">
+        <v>39</v>
+      </c>
+      <c r="W27">
+        <v>5</v>
+      </c>
+      <c r="X27">
+        <f>U27/W27</f>
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
         <v>99</v>
       </c>
@@ -4353,29 +4351,29 @@
         <f>R28/Q28</f>
         <v>1.0000000000000001E-5</v>
       </c>
+      <c r="T28">
+        <v>27.6</v>
+      </c>
       <c r="U28">
-        <v>12.5</v>
-      </c>
-      <c r="V28">
-        <v>31.25</v>
-      </c>
-      <c r="W28" t="s">
+        <v>1.2E-2</v>
+      </c>
+      <c r="V28" t="s">
         <v>39</v>
       </c>
+      <c r="W28">
+        <v>5</v>
+      </c>
       <c r="X28">
-        <v>5</v>
-      </c>
-      <c r="Y28">
-        <f t="shared" si="0"/>
-        <v>6.25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U28/W28</f>
+        <v>2.4000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="B29" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="C29" t="s">
         <v>101</v>
@@ -4428,29 +4426,28 @@
       <c r="S29" t="s">
         <v>42</v>
       </c>
-      <c r="U29" t="s">
-        <v>37</v>
-      </c>
-      <c r="V29">
-        <v>17.2</v>
-      </c>
-      <c r="W29" t="s">
-        <v>39</v>
-      </c>
-      <c r="X29">
-        <v>5</v>
-      </c>
-      <c r="Y29">
-        <f t="shared" si="0"/>
-        <v>3.44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" ht="16" x14ac:dyDescent="0.8">
+      <c r="T29" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="U29" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="V29" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="W29" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="X29" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" ht="16" x14ac:dyDescent="0.8">
       <c r="A30" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B30" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C30" t="s">
         <v>102</v>
@@ -4505,29 +4502,29 @@
         <f>R30/Q30</f>
         <v>2.0000000000000002E-7</v>
       </c>
+      <c r="T30">
+        <v>1.24</v>
+      </c>
       <c r="U30">
-        <v>27.6</v>
-      </c>
-      <c r="V30">
-        <v>1.2E-2</v>
-      </c>
-      <c r="W30" t="s">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="V30" t="s">
         <v>39</v>
       </c>
+      <c r="W30">
+        <v>5</v>
+      </c>
       <c r="X30">
-        <v>5</v>
-      </c>
-      <c r="Y30">
-        <f t="shared" si="0"/>
-        <v>2.4000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U30/W30</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B31" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C31" t="s">
         <v>103</v>
@@ -4580,23 +4577,23 @@
       <c r="S31" t="s">
         <v>42</v>
       </c>
-      <c r="U31" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="V31" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="W31" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="X31" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y31" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.75">
+      <c r="T31" t="s">
+        <v>42</v>
+      </c>
+      <c r="U31" t="s">
+        <v>42</v>
+      </c>
+      <c r="V31" t="s">
+        <v>42</v>
+      </c>
+      <c r="W31" t="s">
+        <v>42</v>
+      </c>
+      <c r="X31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A32" t="s">
         <v>104</v>
       </c>
@@ -4656,24 +4653,24 @@
         <f>R32/Q32</f>
         <v>5.0000000000000001E-3</v>
       </c>
+      <c r="T32">
+        <v>27.3</v>
+      </c>
       <c r="U32">
-        <v>1.24</v>
-      </c>
-      <c r="V32">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="W32" t="s">
+        <v>0.8</v>
+      </c>
+      <c r="V32" t="s">
         <v>39</v>
       </c>
+      <c r="W32">
+        <v>5</v>
+      </c>
       <c r="X32">
-        <v>5</v>
-      </c>
-      <c r="Y32">
-        <f t="shared" si="0"/>
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U32/W32</f>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A33" t="s">
         <v>106</v>
       </c>
@@ -4732,23 +4729,24 @@
       <c r="S33">
         <v>2.9E-4</v>
       </c>
-      <c r="U33" t="s">
-        <v>42</v>
+      <c r="T33">
+        <v>121.2</v>
+      </c>
+      <c r="U33">
+        <v>2.5</v>
       </c>
       <c r="V33" t="s">
-        <v>42</v>
-      </c>
-      <c r="W33" t="s">
-        <v>42</v>
-      </c>
-      <c r="X33" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.75">
+        <v>39</v>
+      </c>
+      <c r="W33">
+        <v>5</v>
+      </c>
+      <c r="X33">
+        <f>U33/W33</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A34" t="s">
         <v>110</v>
       </c>
@@ -4808,24 +4806,24 @@
         <f>R34/Q34</f>
         <v>2.0000000000000002E-5</v>
       </c>
+      <c r="T34">
+        <v>32.4</v>
+      </c>
       <c r="U34">
-        <v>27.3</v>
-      </c>
-      <c r="V34">
-        <v>0.8</v>
-      </c>
-      <c r="W34" t="s">
-        <v>39</v>
+        <v>945</v>
+      </c>
+      <c r="V34" t="s">
+        <v>3</v>
+      </c>
+      <c r="W34">
+        <v>10</v>
       </c>
       <c r="X34">
-        <v>5</v>
-      </c>
-      <c r="Y34">
-        <f t="shared" si="0"/>
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U34/W34</f>
+        <v>94.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A35" t="s">
         <v>112</v>
       </c>
@@ -4885,29 +4883,29 @@
         <f>R35/Q35</f>
         <v>2.4000000000000001E-4</v>
       </c>
+      <c r="T35">
+        <v>25.3</v>
+      </c>
       <c r="U35">
-        <v>121.2</v>
-      </c>
-      <c r="V35">
-        <v>2.5</v>
-      </c>
-      <c r="W35" t="s">
+        <v>1.78E-2</v>
+      </c>
+      <c r="V35" t="s">
         <v>39</v>
       </c>
+      <c r="W35">
+        <v>5</v>
+      </c>
       <c r="X35">
-        <v>5</v>
-      </c>
-      <c r="Y35">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" ht="16" x14ac:dyDescent="0.8">
+        <f>U35/W35</f>
+        <v>3.5599999999999998E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" ht="16" x14ac:dyDescent="0.8">
       <c r="A36" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="B36" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C36" t="s">
         <v>114</v>
@@ -4962,24 +4960,24 @@
         <f>R36/Q36</f>
         <v>2E-8</v>
       </c>
+      <c r="T36">
+        <v>33</v>
+      </c>
       <c r="U36">
-        <v>32.4</v>
-      </c>
-      <c r="V36">
-        <v>945</v>
-      </c>
-      <c r="W36" t="s">
+        <v>1000</v>
+      </c>
+      <c r="V36" t="s">
         <v>3</v>
       </c>
+      <c r="W36">
+        <v>10</v>
+      </c>
       <c r="X36">
-        <v>10</v>
-      </c>
-      <c r="Y36">
-        <f t="shared" si="0"/>
-        <v>94.5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U36/W36</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A37" t="s">
         <v>115</v>
       </c>
@@ -5039,24 +5037,24 @@
         <f>R37/Q37</f>
         <v>6.7000000000000002E-4</v>
       </c>
+      <c r="T37">
+        <v>3.5</v>
+      </c>
       <c r="U37">
-        <v>25.3</v>
-      </c>
-      <c r="V37">
-        <v>1.78E-2</v>
-      </c>
-      <c r="W37" t="s">
+        <v>6.6</v>
+      </c>
+      <c r="V37" t="s">
         <v>39</v>
       </c>
+      <c r="W37">
+        <v>5</v>
+      </c>
       <c r="X37">
-        <v>5</v>
-      </c>
-      <c r="Y37">
-        <f t="shared" si="0"/>
-        <v>3.5599999999999998E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25" ht="16" x14ac:dyDescent="0.8">
+        <f>U37/W37</f>
+        <v>1.3199999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" ht="16" x14ac:dyDescent="0.8">
       <c r="A38" t="s">
         <v>117</v>
       </c>
@@ -5116,24 +5114,24 @@
         <f>R38/Q38</f>
         <v>3.0000000000000001E-6</v>
       </c>
+      <c r="T38">
+        <v>21.9</v>
+      </c>
       <c r="U38">
-        <v>33</v>
-      </c>
-      <c r="V38">
-        <v>1000</v>
-      </c>
-      <c r="W38" t="s">
-        <v>3</v>
+        <v>5.2</v>
+      </c>
+      <c r="V38" t="s">
+        <v>39</v>
+      </c>
+      <c r="W38">
+        <v>5</v>
       </c>
       <c r="X38">
-        <v>10</v>
-      </c>
-      <c r="Y38">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U38/W38</f>
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A39" t="s">
         <v>119</v>
       </c>
@@ -5192,28 +5190,28 @@
       <c r="S39" s="3">
         <v>2.1000000000000003E-3</v>
       </c>
+      <c r="T39">
+        <v>129</v>
+      </c>
       <c r="U39">
-        <v>3.5</v>
-      </c>
-      <c r="V39">
-        <v>6.6</v>
-      </c>
-      <c r="W39" t="s">
+        <v>0.75</v>
+      </c>
+      <c r="V39" t="s">
         <v>39</v>
       </c>
+      <c r="W39">
+        <v>5</v>
+      </c>
       <c r="X39">
-        <v>5</v>
-      </c>
-      <c r="Y39">
-        <f t="shared" si="0"/>
-        <v>1.3199999999999998</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.75">
-      <c r="A40" t="s">
+        <f>U39/W39</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.75">
+      <c r="A40" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" t="s">
         <v>121</v>
       </c>
       <c r="C40" t="s">
@@ -5269,29 +5267,29 @@
         <f>R40/Q40</f>
         <v>1.7600000000000002E-4</v>
       </c>
+      <c r="T40">
+        <v>45</v>
+      </c>
       <c r="U40">
-        <v>21.9</v>
-      </c>
-      <c r="V40">
-        <v>5.2</v>
-      </c>
-      <c r="W40" t="s">
-        <v>39</v>
+        <v>192</v>
+      </c>
+      <c r="V40" t="s">
+        <v>3</v>
+      </c>
+      <c r="W40">
+        <v>10</v>
       </c>
       <c r="X40">
-        <v>5</v>
-      </c>
-      <c r="Y40">
-        <f t="shared" si="0"/>
-        <v>1.04</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U40/W40</f>
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A41" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B41" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C41" t="s">
         <v>123</v>
@@ -5344,29 +5342,28 @@
       <c r="S41" t="s">
         <v>42</v>
       </c>
-      <c r="U41">
-        <v>129</v>
-      </c>
-      <c r="V41">
-        <v>0.75</v>
+      <c r="T41" t="s">
+        <v>42</v>
+      </c>
+      <c r="U41" t="s">
+        <v>42</v>
+      </c>
+      <c r="V41" t="s">
+        <v>42</v>
       </c>
       <c r="W41" t="s">
-        <v>39</v>
-      </c>
-      <c r="X41">
-        <v>5</v>
-      </c>
-      <c r="Y41">
-        <f t="shared" si="0"/>
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.75">
+        <v>42</v>
+      </c>
+      <c r="X41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A42" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="B42" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C42" t="s">
         <v>124</v>
@@ -5419,29 +5416,28 @@
       <c r="S42" t="s">
         <v>42</v>
       </c>
-      <c r="U42">
-        <v>45</v>
-      </c>
-      <c r="V42">
-        <v>192</v>
+      <c r="T42" t="s">
+        <v>42</v>
+      </c>
+      <c r="U42" t="s">
+        <v>42</v>
+      </c>
+      <c r="V42" t="s">
+        <v>42</v>
       </c>
       <c r="W42" t="s">
-        <v>3</v>
-      </c>
-      <c r="X42">
-        <v>10</v>
-      </c>
-      <c r="Y42">
-        <f t="shared" si="0"/>
-        <v>19.2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.75">
+        <v>42</v>
+      </c>
+      <c r="X42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A43" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B43" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C43" t="s">
         <v>125</v>
@@ -5496,31 +5492,31 @@
         <f>R43/Q43</f>
         <v>8.9999999999999985E-6</v>
       </c>
+      <c r="T43" t="s">
+        <v>37</v>
+      </c>
       <c r="U43" t="s">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="V43" t="s">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="W43" t="s">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="X43" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.75">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A44" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="B44" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C44" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D44" t="s">
         <v>47</v>
@@ -5570,6 +5566,9 @@
       <c r="S44" t="s">
         <v>42</v>
       </c>
+      <c r="T44" t="s">
+        <v>42</v>
+      </c>
       <c r="U44" t="s">
         <v>42</v>
       </c>
@@ -5582,19 +5581,16 @@
       <c r="X44" t="s">
         <v>42</v>
       </c>
-      <c r="Y44" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.75">
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A45" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B45" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C45" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D45" t="s">
         <v>47</v>
@@ -5644,28 +5640,28 @@
       <c r="S45" t="s">
         <v>42</v>
       </c>
+      <c r="T45" t="s">
+        <v>42</v>
+      </c>
       <c r="U45" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="V45" t="s">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="W45" t="s">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="X45" t="s">
-        <v>126</v>
-      </c>
-      <c r="Y45" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.75">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A46" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="B46" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C46" t="s">
         <v>129</v>
@@ -5718,6 +5714,9 @@
       <c r="S46" t="s">
         <v>42</v>
       </c>
+      <c r="T46" t="s">
+        <v>42</v>
+      </c>
       <c r="U46" t="s">
         <v>42</v>
       </c>
@@ -5730,16 +5729,13 @@
       <c r="X46" t="s">
         <v>42</v>
       </c>
-      <c r="Y46" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.75">
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A47" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B47" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C47" t="s">
         <v>130</v>
@@ -5794,23 +5790,24 @@
         <f>R47/Q47</f>
         <v>2.7E-6</v>
       </c>
-      <c r="U47" t="s">
-        <v>42</v>
+      <c r="T47" t="s">
+        <v>37</v>
+      </c>
+      <c r="U47">
+        <v>176</v>
       </c>
       <c r="V47" t="s">
-        <v>42</v>
-      </c>
-      <c r="W47" t="s">
-        <v>42</v>
-      </c>
-      <c r="X47" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y47" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25" ht="16" x14ac:dyDescent="0.8">
+        <v>39</v>
+      </c>
+      <c r="W47">
+        <v>5</v>
+      </c>
+      <c r="X47">
+        <f>U47/W47</f>
+        <v>35.200000000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="16" x14ac:dyDescent="0.8">
       <c r="A48" t="s">
         <v>131</v>
       </c>
@@ -5870,28 +5867,29 @@
         <f>R48/Q48</f>
         <v>1.7E-8</v>
       </c>
-      <c r="U48" t="s">
-        <v>42</v>
+      <c r="T48">
+        <v>21</v>
+      </c>
+      <c r="U48">
+        <v>0.16500000000000001</v>
       </c>
       <c r="V48" t="s">
-        <v>42</v>
-      </c>
-      <c r="W48" t="s">
-        <v>42</v>
-      </c>
-      <c r="X48" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y48" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.75">
+        <v>39</v>
+      </c>
+      <c r="W48">
+        <v>5</v>
+      </c>
+      <c r="X48">
+        <f>U48/W48</f>
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A49" t="s">
+        <v>475</v>
+      </c>
+      <c r="B49" t="s">
         <v>133</v>
-      </c>
-      <c r="B49" t="s">
-        <v>550</v>
       </c>
       <c r="C49" t="s">
         <v>134</v>
@@ -5939,31 +5937,31 @@
       <c r="Q49">
         <v>10</v>
       </c>
-      <c r="R49">
+      <c r="R49" s="23">
         <v>25</v>
       </c>
       <c r="S49">
         <f>R49/Q49</f>
         <v>2.5</v>
       </c>
-      <c r="U49" t="s">
-        <v>37</v>
-      </c>
-      <c r="V49">
-        <v>176</v>
-      </c>
-      <c r="W49" t="s">
+      <c r="T49">
+        <v>3.9</v>
+      </c>
+      <c r="U49">
+        <v>26.1</v>
+      </c>
+      <c r="V49" t="s">
         <v>39</v>
       </c>
+      <c r="W49">
+        <v>5</v>
+      </c>
       <c r="X49">
-        <v>5</v>
-      </c>
-      <c r="Y49">
-        <f t="shared" si="0"/>
-        <v>35.200000000000003</v>
-      </c>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U49/W49</f>
+        <v>5.2200000000000006</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A50" t="s">
         <v>135</v>
       </c>
@@ -6016,31 +6014,31 @@
       <c r="Q50">
         <v>50</v>
       </c>
-      <c r="R50" s="23">
+      <c r="R50">
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="S50">
         <f>R50/Q50</f>
         <v>6.4000000000000005E-4</v>
       </c>
+      <c r="T50">
+        <v>18.7</v>
+      </c>
       <c r="U50">
-        <v>21</v>
-      </c>
-      <c r="V50">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="W50" t="s">
+        <v>77.8</v>
+      </c>
+      <c r="V50" t="s">
         <v>39</v>
       </c>
+      <c r="W50">
+        <v>5</v>
+      </c>
       <c r="X50">
-        <v>5</v>
-      </c>
-      <c r="Y50">
-        <f t="shared" si="0"/>
-        <v>3.3000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U50/W50</f>
+        <v>15.559999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A51" t="s">
         <v>137</v>
       </c>
@@ -6099,24 +6097,24 @@
       <c r="S51">
         <v>1.1999999999999999E-6</v>
       </c>
+      <c r="T51" t="s">
+        <v>37</v>
+      </c>
       <c r="U51">
-        <v>3.9</v>
-      </c>
-      <c r="V51">
-        <v>26.1</v>
-      </c>
-      <c r="W51" t="s">
-        <v>39</v>
+        <v>100</v>
+      </c>
+      <c r="V51" t="s">
+        <v>3</v>
+      </c>
+      <c r="W51">
+        <v>10</v>
       </c>
       <c r="X51">
-        <v>5</v>
-      </c>
-      <c r="Y51">
-        <f t="shared" si="0"/>
-        <v>5.2200000000000006</v>
-      </c>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U51/W51</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A52" t="s">
         <v>140</v>
       </c>
@@ -6176,24 +6174,24 @@
         <f>R52/Q52</f>
         <v>5.5999999999999995E-4</v>
       </c>
+      <c r="T52">
+        <v>91.8</v>
+      </c>
       <c r="U52">
-        <v>18.7</v>
-      </c>
-      <c r="V52">
-        <v>77.8</v>
-      </c>
-      <c r="W52" t="s">
+        <v>0.2</v>
+      </c>
+      <c r="V52" t="s">
         <v>39</v>
       </c>
+      <c r="W52">
+        <v>5</v>
+      </c>
       <c r="X52">
-        <v>5</v>
-      </c>
-      <c r="Y52">
-        <f t="shared" si="0"/>
-        <v>15.559999999999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:25" ht="16" x14ac:dyDescent="0.8">
+        <f>U52/W52</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" ht="16" x14ac:dyDescent="0.8">
       <c r="A53" t="s">
         <v>142</v>
       </c>
@@ -6253,29 +6251,29 @@
         <f>R53/Q53</f>
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="U53" t="s">
-        <v>37</v>
-      </c>
-      <c r="V53">
+      <c r="T53">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="U53">
+        <v>500</v>
+      </c>
+      <c r="V53" t="s">
+        <v>39</v>
+      </c>
+      <c r="W53">
+        <v>5</v>
+      </c>
+      <c r="X53">
+        <f>U53/W53</f>
         <v>100</v>
       </c>
-      <c r="W53" t="s">
-        <v>3</v>
-      </c>
-      <c r="X53">
-        <v>10</v>
-      </c>
-      <c r="Y53">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.75">
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A54" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="B54" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C54" t="s">
         <v>144</v>
@@ -6328,29 +6326,29 @@
       <c r="S54" t="s">
         <v>42</v>
       </c>
+      <c r="T54">
+        <v>17.899999999999999</v>
+      </c>
       <c r="U54">
-        <v>91.8</v>
-      </c>
-      <c r="V54">
-        <v>0.2</v>
-      </c>
-      <c r="W54" t="s">
-        <v>39</v>
+        <v>0.1</v>
+      </c>
+      <c r="V54" t="s">
+        <v>3</v>
+      </c>
+      <c r="W54">
+        <v>10</v>
       </c>
       <c r="X54">
-        <v>5</v>
-      </c>
-      <c r="Y54">
-        <f t="shared" si="0"/>
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U54/W54</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A55" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="B55" t="s">
-        <v>499</v>
+        <v>424</v>
       </c>
       <c r="C55" t="s">
         <v>145</v>
@@ -6404,28 +6402,28 @@
       <c r="S55" s="3">
         <v>6.0000000000000002E-5</v>
       </c>
+      <c r="T55">
+        <v>15.8</v>
+      </c>
       <c r="U55">
-        <v>64.599999999999994</v>
-      </c>
-      <c r="V55">
-        <v>500</v>
-      </c>
-      <c r="W55" t="s">
+        <v>12.5</v>
+      </c>
+      <c r="V55" t="s">
         <v>39</v>
       </c>
+      <c r="W55">
+        <v>5</v>
+      </c>
       <c r="X55">
-        <v>5</v>
-      </c>
-      <c r="Y55">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.75">
-      <c r="A56" t="s">
+        <f>U55/W55</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.75">
+      <c r="A56" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" t="s">
         <v>146</v>
       </c>
       <c r="C56" t="s">
@@ -6481,24 +6479,24 @@
         <f>R56/Q56</f>
         <v>4.0000000000000001E-3</v>
       </c>
+      <c r="T56">
+        <v>7.2</v>
+      </c>
       <c r="U56">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="V56">
-        <v>0.1</v>
-      </c>
-      <c r="W56" t="s">
-        <v>3</v>
+        <v>2.87</v>
+      </c>
+      <c r="V56" t="s">
+        <v>39</v>
+      </c>
+      <c r="W56">
+        <v>5</v>
       </c>
       <c r="X56">
-        <v>10</v>
-      </c>
-      <c r="Y56">
-        <f t="shared" si="0"/>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U56/W56</f>
+        <v>0.57400000000000007</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A57" t="s">
         <v>148</v>
       </c>
@@ -6557,28 +6555,28 @@
       <c r="S57" s="3">
         <v>5.6000000000000006E-4</v>
       </c>
+      <c r="T57">
+        <v>44</v>
+      </c>
       <c r="U57">
-        <v>15.8</v>
-      </c>
-      <c r="V57">
-        <v>12.5</v>
-      </c>
-      <c r="W57" t="s">
+        <v>60</v>
+      </c>
+      <c r="V57" t="s">
         <v>39</v>
       </c>
+      <c r="W57">
+        <v>5</v>
+      </c>
       <c r="X57">
-        <v>5</v>
-      </c>
-      <c r="Y57">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.75">
-      <c r="A58" t="s">
+        <f>U57/W57</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.75">
+      <c r="A58" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" t="s">
         <v>150</v>
       </c>
       <c r="C58" t="s">
@@ -6634,24 +6632,24 @@
         <f>R58/Q58</f>
         <v>1E-4</v>
       </c>
+      <c r="T58">
+        <v>22.9</v>
+      </c>
       <c r="U58">
-        <v>7.2</v>
-      </c>
-      <c r="V58">
-        <v>2.87</v>
-      </c>
-      <c r="W58" t="s">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="V58" t="s">
         <v>39</v>
       </c>
+      <c r="W58">
+        <v>5</v>
+      </c>
       <c r="X58">
-        <v>5</v>
-      </c>
-      <c r="Y58">
-        <f t="shared" si="0"/>
-        <v>0.57400000000000007</v>
-      </c>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U58/W58</f>
+        <v>1.78E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A59" t="s">
         <v>152</v>
       </c>
@@ -6711,24 +6709,24 @@
         <f>R59/Q59</f>
         <v>2.4000000000000001E-5</v>
       </c>
+      <c r="T59">
+        <v>75</v>
+      </c>
       <c r="U59">
-        <v>44</v>
-      </c>
-      <c r="V59">
-        <v>60</v>
-      </c>
-      <c r="W59" t="s">
+        <v>0.2</v>
+      </c>
+      <c r="V59" t="s">
         <v>39</v>
       </c>
+      <c r="W59">
+        <v>5</v>
+      </c>
       <c r="X59">
-        <v>5</v>
-      </c>
-      <c r="Y59">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U59/W59</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A60" t="s">
         <v>154</v>
       </c>
@@ -6787,28 +6785,28 @@
       <c r="S60" s="3">
         <v>2.7000000000000002E-5</v>
       </c>
+      <c r="T60">
+        <v>229</v>
+      </c>
       <c r="U60">
-        <v>22.9</v>
-      </c>
-      <c r="V60">
-        <v>8.8999999999999996E-2</v>
-      </c>
-      <c r="W60" t="s">
+        <v>15.78</v>
+      </c>
+      <c r="V60" t="s">
         <v>39</v>
       </c>
+      <c r="W60">
+        <v>5</v>
+      </c>
       <c r="X60">
-        <v>5</v>
-      </c>
-      <c r="Y60">
-        <f t="shared" si="0"/>
-        <v>1.78E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.75">
-      <c r="A61" t="s">
+        <f>U60/W60</f>
+        <v>3.1559999999999997</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.75">
+      <c r="A61" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" t="s">
         <v>156</v>
       </c>
       <c r="C61" t="s">
@@ -6864,24 +6862,24 @@
         <f>R61/Q61</f>
         <v>9.9999999999999995E-7</v>
       </c>
+      <c r="T61">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="U61">
-        <v>75</v>
-      </c>
-      <c r="V61">
-        <v>0.2</v>
-      </c>
-      <c r="W61" t="s">
+        <v>2</v>
+      </c>
+      <c r="V61" t="s">
         <v>39</v>
       </c>
+      <c r="W61">
+        <v>5</v>
+      </c>
       <c r="X61">
-        <v>5</v>
-      </c>
-      <c r="Y61">
-        <f t="shared" si="0"/>
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U61/W61</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A62" t="s">
         <v>158</v>
       </c>
@@ -6940,24 +6938,24 @@
       <c r="S62">
         <v>7.7999999999999999E-4</v>
       </c>
+      <c r="T62">
+        <v>97.7</v>
+      </c>
       <c r="U62">
-        <v>229</v>
-      </c>
-      <c r="V62">
-        <v>15.78</v>
-      </c>
-      <c r="W62" t="s">
+        <v>0.495</v>
+      </c>
+      <c r="V62" t="s">
         <v>39</v>
       </c>
+      <c r="W62">
+        <v>5</v>
+      </c>
       <c r="X62">
-        <v>5</v>
-      </c>
-      <c r="Y62">
-        <f t="shared" si="0"/>
-        <v>3.1559999999999997</v>
-      </c>
-    </row>
-    <row r="63" spans="1:25" ht="16" x14ac:dyDescent="0.8">
+        <f>U62/W62</f>
+        <v>9.9000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" ht="16" x14ac:dyDescent="0.8">
       <c r="A63" t="s">
         <v>160</v>
       </c>
@@ -7017,24 +7015,24 @@
         <f>R63/Q63</f>
         <v>5.2E-7</v>
       </c>
+      <c r="T63">
+        <v>19.2</v>
+      </c>
       <c r="U63">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="V63">
-        <v>2</v>
-      </c>
-      <c r="W63" t="s">
+        <v>0.4</v>
+      </c>
+      <c r="V63" t="s">
         <v>39</v>
       </c>
+      <c r="W63">
+        <v>5</v>
+      </c>
       <c r="X63">
-        <v>5</v>
-      </c>
-      <c r="Y63">
-        <f t="shared" si="0"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U63/W63</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A64" t="s">
         <v>162</v>
       </c>
@@ -7093,24 +7091,24 @@
       <c r="S64">
         <v>1.5599999999999999E-2</v>
       </c>
+      <c r="T64">
+        <v>37.799999999999997</v>
+      </c>
       <c r="U64">
-        <v>97.7</v>
-      </c>
-      <c r="V64">
-        <v>0.495</v>
-      </c>
-      <c r="W64" t="s">
+        <v>4.42</v>
+      </c>
+      <c r="V64" t="s">
         <v>39</v>
       </c>
+      <c r="W64">
+        <v>5</v>
+      </c>
       <c r="X64">
-        <v>5</v>
-      </c>
-      <c r="Y64">
-        <f t="shared" si="0"/>
-        <v>9.9000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U64/W64</f>
+        <v>0.88400000000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A65" t="s">
         <v>164</v>
       </c>
@@ -7169,29 +7167,29 @@
       <c r="S65" s="14">
         <v>2.8E-5</v>
       </c>
+      <c r="T65">
+        <v>20</v>
+      </c>
       <c r="U65">
-        <v>19.2</v>
-      </c>
-      <c r="V65">
-        <v>0.4</v>
-      </c>
-      <c r="W65" t="s">
+        <v>8.15</v>
+      </c>
+      <c r="V65" t="s">
         <v>39</v>
       </c>
+      <c r="W65">
+        <v>5</v>
+      </c>
       <c r="X65">
-        <v>5</v>
-      </c>
-      <c r="Y65">
-        <f t="shared" si="0"/>
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U65/W65</f>
+        <v>1.6300000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A66" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="B66" t="s">
-        <v>500</v>
+        <v>425</v>
       </c>
       <c r="C66" t="s">
         <v>166</v>
@@ -7246,24 +7244,24 @@
         <f>R66/Q66</f>
         <v>7.7999999999999996E-3</v>
       </c>
+      <c r="T66">
+        <v>61</v>
+      </c>
       <c r="U66">
-        <v>37.799999999999997</v>
-      </c>
-      <c r="V66">
-        <v>4.42</v>
-      </c>
-      <c r="W66" t="s">
         <v>39</v>
       </c>
+      <c r="V66" t="s">
+        <v>39</v>
+      </c>
+      <c r="W66">
+        <v>5</v>
+      </c>
       <c r="X66">
-        <v>5</v>
-      </c>
-      <c r="Y66">
-        <f t="shared" si="0"/>
-        <v>0.88400000000000001</v>
-      </c>
-    </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U66/W66</f>
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A67" t="s">
         <v>167</v>
       </c>
@@ -7323,28 +7321,28 @@
         <f>R67/Q67</f>
         <v>2.0200000000000001E-3</v>
       </c>
+      <c r="T67" t="s">
+        <v>37</v>
+      </c>
       <c r="U67">
-        <v>20</v>
-      </c>
-      <c r="V67">
-        <v>8.15</v>
-      </c>
-      <c r="W67" t="s">
+        <v>9.9</v>
+      </c>
+      <c r="V67" t="s">
         <v>39</v>
       </c>
+      <c r="W67">
+        <v>5</v>
+      </c>
       <c r="X67">
-        <v>5</v>
-      </c>
-      <c r="Y67">
-        <f t="shared" si="0"/>
-        <v>1.6300000000000001</v>
-      </c>
-    </row>
-    <row r="68" spans="1:25" ht="16" x14ac:dyDescent="0.8">
-      <c r="A68" t="s">
+        <f>U67/W67</f>
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" ht="16" x14ac:dyDescent="0.8">
+      <c r="A68" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" t="s">
         <v>169</v>
       </c>
       <c r="C68" t="s">
@@ -7400,24 +7398,24 @@
         <f>R68/Q68</f>
         <v>1.5999999999999998E-8</v>
       </c>
+      <c r="T68">
+        <v>5.94</v>
+      </c>
       <c r="U68">
-        <v>61</v>
-      </c>
-      <c r="V68">
-        <v>39</v>
-      </c>
-      <c r="W68" t="s">
-        <v>39</v>
+        <v>425</v>
+      </c>
+      <c r="V68" t="s">
+        <v>3</v>
+      </c>
+      <c r="W68">
+        <v>10</v>
       </c>
       <c r="X68">
-        <v>5</v>
-      </c>
-      <c r="Y68">
-        <f t="shared" si="0"/>
-        <v>7.8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U68/W68</f>
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A69" t="s">
         <v>171</v>
       </c>
@@ -7477,24 +7475,24 @@
         <f>R69/Q69</f>
         <v>1E-4</v>
       </c>
-      <c r="U69" t="s">
-        <v>37</v>
-      </c>
-      <c r="V69">
-        <v>9.9</v>
-      </c>
-      <c r="W69" t="s">
+      <c r="T69">
+        <v>49.2</v>
+      </c>
+      <c r="U69">
+        <v>10</v>
+      </c>
+      <c r="V69" t="s">
         <v>39</v>
       </c>
+      <c r="W69">
+        <v>5</v>
+      </c>
       <c r="X69">
-        <v>5</v>
-      </c>
-      <c r="Y69">
-        <f t="shared" si="0"/>
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U69/W69</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A70" t="s">
         <v>173</v>
       </c>
@@ -7554,24 +7552,24 @@
         <f>R70/Q70</f>
         <v>1.16E-3</v>
       </c>
+      <c r="T70">
+        <v>25.5</v>
+      </c>
       <c r="U70">
-        <v>5.94</v>
-      </c>
-      <c r="V70">
-        <v>425</v>
-      </c>
-      <c r="W70" t="s">
-        <v>3</v>
+        <v>4.7</v>
+      </c>
+      <c r="V70" t="s">
+        <v>39</v>
+      </c>
+      <c r="W70">
+        <v>5</v>
       </c>
       <c r="X70">
-        <v>10</v>
-      </c>
-      <c r="Y70">
-        <f t="shared" si="0"/>
-        <v>42.5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:25" ht="16" x14ac:dyDescent="0.8">
+        <f>U70/W70</f>
+        <v>0.94000000000000006</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" ht="16" x14ac:dyDescent="0.8">
       <c r="A71" t="s">
         <v>175</v>
       </c>
@@ -7630,24 +7628,24 @@
       <c r="S71" s="14">
         <v>1E-4</v>
       </c>
+      <c r="T71" t="s">
+        <v>37</v>
+      </c>
       <c r="U71">
-        <v>49.2</v>
-      </c>
-      <c r="V71">
+        <v>40</v>
+      </c>
+      <c r="V71" t="s">
+        <v>3</v>
+      </c>
+      <c r="W71">
         <v>10</v>
       </c>
-      <c r="W71" t="s">
-        <v>39</v>
-      </c>
       <c r="X71">
-        <v>5</v>
-      </c>
-      <c r="Y71">
-        <f t="shared" ref="Y71:Y134" si="1">V71/X71</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:25" ht="16" x14ac:dyDescent="0.8">
+        <f>U71/W71</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" ht="16" x14ac:dyDescent="0.8">
       <c r="A72" t="s">
         <v>177</v>
       </c>
@@ -7707,29 +7705,29 @@
         <f>R72/Q72</f>
         <v>1.3999999999999999E-6</v>
       </c>
+      <c r="T72">
+        <v>65</v>
+      </c>
       <c r="U72">
-        <v>25.5</v>
-      </c>
-      <c r="V72">
-        <v>4.7</v>
-      </c>
-      <c r="W72" t="s">
-        <v>39</v>
+        <v>0.32</v>
+      </c>
+      <c r="V72" t="s">
+        <v>3</v>
+      </c>
+      <c r="W72">
+        <v>10</v>
       </c>
       <c r="X72">
-        <v>5</v>
-      </c>
-      <c r="Y72">
-        <f t="shared" si="1"/>
-        <v>0.94000000000000006</v>
-      </c>
-    </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U72/W72</f>
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A73" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="B73" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C73" t="s">
         <v>179</v>
@@ -7783,29 +7781,29 @@
         <f>R73/Q73</f>
         <v>6.0000000000000008E-8</v>
       </c>
-      <c r="U73" t="s">
-        <v>37</v>
-      </c>
-      <c r="V73">
-        <v>40</v>
-      </c>
-      <c r="W73" t="s">
+      <c r="T73">
+        <v>266</v>
+      </c>
+      <c r="U73">
+        <v>500</v>
+      </c>
+      <c r="V73" t="s">
         <v>3</v>
       </c>
+      <c r="W73">
+        <v>10</v>
+      </c>
       <c r="X73">
-        <v>10</v>
-      </c>
-      <c r="Y73">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U73/W73</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A74" t="s">
+        <v>475</v>
+      </c>
+      <c r="B74" t="s">
         <v>180</v>
-      </c>
-      <c r="B74" t="s">
-        <v>550</v>
       </c>
       <c r="C74" t="s">
         <v>181</v>
@@ -7860,24 +7858,24 @@
         <f>R74/Q74</f>
         <v>5.0000000000000001E-4</v>
       </c>
+      <c r="T74">
+        <v>10</v>
+      </c>
       <c r="U74">
-        <v>65</v>
-      </c>
-      <c r="V74">
-        <v>0.32</v>
-      </c>
-      <c r="W74" t="s">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="V74" t="s">
+        <v>39</v>
+      </c>
+      <c r="W74">
+        <v>5</v>
       </c>
       <c r="X74">
-        <v>10</v>
-      </c>
-      <c r="Y74">
-        <f t="shared" si="1"/>
-        <v>3.2000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U74/W74</f>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A75" t="s">
         <v>182</v>
       </c>
@@ -7937,24 +7935,24 @@
         <f>R75/Q75</f>
         <v>6.2E-2</v>
       </c>
+      <c r="T75">
+        <v>3.1</v>
+      </c>
       <c r="U75">
-        <v>266</v>
-      </c>
-      <c r="V75">
-        <v>500</v>
-      </c>
-      <c r="W75" t="s">
+        <v>1000</v>
+      </c>
+      <c r="V75" t="s">
         <v>3</v>
       </c>
+      <c r="W75">
+        <v>10</v>
+      </c>
       <c r="X75">
-        <v>10</v>
-      </c>
-      <c r="Y75">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U75/W75</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A76" t="s">
         <v>184</v>
       </c>
@@ -8014,29 +8012,29 @@
         <f>R76/Q76</f>
         <v>8.9400000000000005E-5</v>
       </c>
+      <c r="T76">
+        <v>8.5</v>
+      </c>
       <c r="U76">
-        <v>10</v>
-      </c>
-      <c r="V76">
-        <v>8</v>
-      </c>
-      <c r="W76" t="s">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="V76" t="s">
         <v>39</v>
       </c>
+      <c r="W76">
+        <v>5</v>
+      </c>
       <c r="X76">
-        <v>5</v>
-      </c>
-      <c r="Y76">
-        <f t="shared" si="1"/>
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U76/W76</f>
+        <v>4.0600000000000004E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A77" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="B77" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="C77" t="s">
         <v>186</v>
@@ -8090,24 +8088,23 @@
       <c r="S77" t="s">
         <v>37</v>
       </c>
-      <c r="U77">
-        <v>3.1</v>
-      </c>
-      <c r="V77">
-        <v>1000</v>
+      <c r="T77" t="s">
+        <v>37</v>
+      </c>
+      <c r="U77" t="s">
+        <v>126</v>
+      </c>
+      <c r="V77" t="s">
+        <v>126</v>
       </c>
       <c r="W77" t="s">
-        <v>3</v>
-      </c>
-      <c r="X77">
-        <v>10</v>
-      </c>
-      <c r="Y77">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="78" spans="1:25" ht="16" x14ac:dyDescent="0.8">
+        <v>126</v>
+      </c>
+      <c r="X77" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" ht="16" x14ac:dyDescent="0.8">
       <c r="A78" t="s">
         <v>187</v>
       </c>
@@ -8167,24 +8164,24 @@
         <f>R78/Q78</f>
         <v>6.8999999999999997E-5</v>
       </c>
+      <c r="T78">
+        <v>25.9</v>
+      </c>
       <c r="U78">
-        <v>8.5</v>
-      </c>
-      <c r="V78">
-        <v>0.20300000000000001</v>
-      </c>
-      <c r="W78" t="s">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="V78" t="s">
         <v>39</v>
       </c>
+      <c r="W78">
+        <v>5</v>
+      </c>
       <c r="X78">
-        <v>5</v>
-      </c>
-      <c r="Y78">
-        <f t="shared" si="1"/>
-        <v>4.0600000000000004E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U78/W78</f>
+        <v>3.4999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A79" t="s">
         <v>189</v>
       </c>
@@ -8244,23 +8241,24 @@
         <f>R79/Q79</f>
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="U79" t="s">
-        <v>37</v>
+      <c r="T79">
+        <v>16</v>
+      </c>
+      <c r="U79">
+        <v>14.4</v>
       </c>
       <c r="V79" t="s">
-        <v>126</v>
-      </c>
-      <c r="W79" t="s">
-        <v>126</v>
-      </c>
-      <c r="X79" t="s">
-        <v>126</v>
-      </c>
-      <c r="Y79" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.75">
+        <v>39</v>
+      </c>
+      <c r="W79">
+        <v>5</v>
+      </c>
+      <c r="X79">
+        <f>U79/W79</f>
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A80" t="s">
         <v>191</v>
       </c>
@@ -8320,29 +8318,29 @@
         <f>R80/Q80</f>
         <v>2.0400000000000001E-5</v>
       </c>
+      <c r="T80">
+        <v>39</v>
+      </c>
       <c r="U80">
-        <v>25.9</v>
-      </c>
-      <c r="V80">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="W80" t="s">
+        <v>1.2</v>
+      </c>
+      <c r="V80" t="s">
         <v>39</v>
       </c>
+      <c r="W80">
+        <v>5</v>
+      </c>
       <c r="X80">
-        <v>5</v>
-      </c>
-      <c r="Y80">
-        <f t="shared" si="1"/>
-        <v>3.4999999999999996E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U80/W80</f>
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A81" t="s">
-        <v>423</v>
+        <v>475</v>
       </c>
       <c r="B81" t="s">
-        <v>550</v>
+        <v>498</v>
       </c>
       <c r="C81" t="s">
         <v>193</v>
@@ -8397,24 +8395,24 @@
         <f>R81/Q81</f>
         <v>8.5199999999999997E-6</v>
       </c>
+      <c r="T81">
+        <v>17.600000000000001</v>
+      </c>
       <c r="U81">
-        <v>16</v>
-      </c>
-      <c r="V81">
-        <v>14.4</v>
-      </c>
-      <c r="W81" t="s">
-        <v>39</v>
+        <v>491</v>
+      </c>
+      <c r="V81" t="s">
+        <v>3</v>
+      </c>
+      <c r="W81">
+        <v>10</v>
       </c>
       <c r="X81">
-        <v>5</v>
-      </c>
-      <c r="Y81">
-        <f t="shared" si="1"/>
-        <v>2.88</v>
-      </c>
-    </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U81/W81</f>
+        <v>49.1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A82" t="s">
         <v>194</v>
       </c>
@@ -8474,24 +8472,24 @@
         <f>R82/Q82</f>
         <v>2.9E-4</v>
       </c>
+      <c r="T82">
+        <v>138.80000000000001</v>
+      </c>
       <c r="U82">
+        <v>31.25</v>
+      </c>
+      <c r="V82" t="s">
         <v>39</v>
       </c>
-      <c r="V82">
-        <v>1.2</v>
-      </c>
-      <c r="W82" t="s">
-        <v>39</v>
+      <c r="W82">
+        <v>5</v>
       </c>
       <c r="X82">
-        <v>5</v>
-      </c>
-      <c r="Y82">
-        <f t="shared" si="1"/>
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U82/W82</f>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A83" t="s">
         <v>196</v>
       </c>
@@ -8551,29 +8549,29 @@
         <f>R83/Q83</f>
         <v>1.3500000000000001E-3</v>
       </c>
+      <c r="T83">
+        <v>118.8</v>
+      </c>
       <c r="U83">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="V83">
-        <v>491</v>
-      </c>
-      <c r="W83" t="s">
-        <v>3</v>
+        <v>11.42</v>
+      </c>
+      <c r="V83" t="s">
+        <v>39</v>
+      </c>
+      <c r="W83">
+        <v>5</v>
       </c>
       <c r="X83">
-        <v>10</v>
-      </c>
-      <c r="Y83">
-        <f t="shared" si="1"/>
-        <v>49.1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U83/W83</f>
+        <v>2.2839999999999998</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A84" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="B84" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="C84" t="s">
         <v>198</v>
@@ -8626,24 +8624,23 @@
       <c r="S84" t="s">
         <v>37</v>
       </c>
-      <c r="U84">
-        <v>138.80000000000001</v>
-      </c>
-      <c r="V84">
-        <v>31.25</v>
+      <c r="T84" t="s">
+        <v>37</v>
+      </c>
+      <c r="U84" t="s">
+        <v>126</v>
+      </c>
+      <c r="V84" t="s">
+        <v>126</v>
       </c>
       <c r="W84" t="s">
-        <v>39</v>
-      </c>
-      <c r="X84">
-        <v>5</v>
-      </c>
-      <c r="Y84">
-        <f t="shared" si="1"/>
-        <v>6.25</v>
-      </c>
-    </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.75">
+        <v>126</v>
+      </c>
+      <c r="X84" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A85" t="s">
         <v>199</v>
       </c>
@@ -8703,24 +8700,24 @@
         <f>R85/Q85</f>
         <v>2.8600000000000001E-4</v>
       </c>
+      <c r="T85">
+        <v>52.6</v>
+      </c>
       <c r="U85">
-        <v>118.8</v>
-      </c>
-      <c r="V85">
-        <v>11.42</v>
-      </c>
-      <c r="W85" t="s">
+        <v>5</v>
+      </c>
+      <c r="V85" t="s">
         <v>39</v>
       </c>
+      <c r="W85">
+        <v>5</v>
+      </c>
       <c r="X85">
-        <v>5</v>
-      </c>
-      <c r="Y85">
-        <f t="shared" si="1"/>
-        <v>2.2839999999999998</v>
-      </c>
-    </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U85/W85</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A86" t="s">
         <v>201</v>
       </c>
@@ -8780,28 +8777,29 @@
         <f>R86/Q86</f>
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="U86" t="s">
-        <v>37</v>
+      <c r="T86">
+        <v>130</v>
+      </c>
+      <c r="U86">
+        <v>185.6</v>
       </c>
       <c r="V86" t="s">
-        <v>126</v>
-      </c>
-      <c r="W86" t="s">
-        <v>126</v>
-      </c>
-      <c r="X86" t="s">
-        <v>126</v>
-      </c>
-      <c r="Y86" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.75">
+        <v>3</v>
+      </c>
+      <c r="W86">
+        <v>10</v>
+      </c>
+      <c r="X86">
+        <f>U86/W86</f>
+        <v>18.559999999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A87" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="B87" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="C87" t="s">
         <v>203</v>
@@ -8856,24 +8854,24 @@
         <f>56/Q87</f>
         <v>5.6</v>
       </c>
+      <c r="T87">
+        <v>3</v>
+      </c>
       <c r="U87">
-        <v>52.6</v>
-      </c>
-      <c r="V87">
+        <v>3.05</v>
+      </c>
+      <c r="V87" t="s">
+        <v>39</v>
+      </c>
+      <c r="W87">
         <v>5</v>
       </c>
-      <c r="W87" t="s">
-        <v>39</v>
-      </c>
       <c r="X87">
-        <v>5</v>
-      </c>
-      <c r="Y87">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U87/W87</f>
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A88" t="s">
         <v>204</v>
       </c>
@@ -8933,24 +8931,24 @@
         <f>R88/Q88</f>
         <v>2.3E-3</v>
       </c>
+      <c r="T88">
+        <v>94</v>
+      </c>
       <c r="U88">
-        <v>130</v>
-      </c>
-      <c r="V88">
-        <v>185.6</v>
-      </c>
-      <c r="W88" t="s">
-        <v>3</v>
+        <v>8.82</v>
+      </c>
+      <c r="V88" t="s">
+        <v>39</v>
+      </c>
+      <c r="W88">
+        <v>5</v>
       </c>
       <c r="X88">
-        <v>10</v>
-      </c>
-      <c r="Y88">
-        <f t="shared" si="1"/>
-        <v>18.559999999999999</v>
-      </c>
-    </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U88/W88</f>
+        <v>1.764</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A89" t="s">
         <v>206</v>
       </c>
@@ -9010,24 +9008,24 @@
         <f>R89/Q89</f>
         <v>1.7999999999999999E-2</v>
       </c>
+      <c r="T89">
+        <v>105</v>
+      </c>
       <c r="U89">
-        <v>3</v>
-      </c>
-      <c r="V89">
-        <v>3.05</v>
-      </c>
-      <c r="W89" t="s">
+        <v>12.9</v>
+      </c>
+      <c r="V89" t="s">
         <v>39</v>
       </c>
+      <c r="W89">
+        <v>5</v>
+      </c>
       <c r="X89">
-        <v>5</v>
-      </c>
-      <c r="Y89">
-        <f t="shared" si="1"/>
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U89/W89</f>
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A90" t="s">
         <v>208</v>
       </c>
@@ -9087,29 +9085,29 @@
         <f>R90/Q90</f>
         <v>7.1999999999999994E-4</v>
       </c>
+      <c r="T90">
+        <v>181.5</v>
+      </c>
       <c r="U90">
-        <v>94</v>
-      </c>
-      <c r="V90">
-        <v>8.82</v>
-      </c>
-      <c r="W90" t="s">
+        <v>21.3</v>
+      </c>
+      <c r="V90" t="s">
         <v>39</v>
       </c>
+      <c r="W90">
+        <v>5</v>
+      </c>
       <c r="X90">
-        <v>5</v>
-      </c>
-      <c r="Y90">
-        <f t="shared" si="1"/>
-        <v>1.764</v>
-      </c>
-    </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U90/W90</f>
+        <v>4.26</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A91" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="B91" t="s">
-        <v>506</v>
+        <v>431</v>
       </c>
       <c r="C91" t="s">
         <v>210</v>
@@ -9164,29 +9162,29 @@
         <f>R91/Q91</f>
         <v>4.0000000000000003E-5</v>
       </c>
+      <c r="T91">
+        <v>3</v>
+      </c>
       <c r="U91">
-        <v>105</v>
-      </c>
-      <c r="V91">
-        <v>12.9</v>
-      </c>
-      <c r="W91" t="s">
+        <v>5.18</v>
+      </c>
+      <c r="V91" t="s">
         <v>39</v>
       </c>
+      <c r="W91">
+        <v>5</v>
+      </c>
       <c r="X91">
-        <v>5</v>
-      </c>
-      <c r="Y91">
-        <f t="shared" si="1"/>
-        <v>2.58</v>
-      </c>
-    </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U91/W91</f>
+        <v>1.036</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A92" t="s">
         <v>427</v>
       </c>
       <c r="B92" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C92" t="s">
         <v>211</v>
@@ -9241,29 +9239,28 @@
         <f>R92/Q92</f>
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="U92">
-        <v>181.5</v>
-      </c>
-      <c r="V92">
-        <v>21.3</v>
+      <c r="T92" t="s">
+        <v>37</v>
+      </c>
+      <c r="U92" t="s">
+        <v>37</v>
+      </c>
+      <c r="V92" t="s">
+        <v>37</v>
       </c>
       <c r="W92" t="s">
-        <v>39</v>
-      </c>
-      <c r="X92">
-        <v>5</v>
-      </c>
-      <c r="Y92">
-        <f t="shared" si="1"/>
-        <v>4.26</v>
-      </c>
-    </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.75">
+        <v>37</v>
+      </c>
+      <c r="X92" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A93" t="s">
+        <v>475</v>
+      </c>
+      <c r="B93" t="s">
         <v>212</v>
-      </c>
-      <c r="B93" t="s">
-        <v>550</v>
       </c>
       <c r="C93" t="s">
         <v>213</v>
@@ -9318,24 +9315,24 @@
         <f>R93/Q93</f>
         <v>1.0000000000000001E-5</v>
       </c>
+      <c r="T93" t="s">
+        <v>37</v>
+      </c>
       <c r="U93">
-        <v>3</v>
-      </c>
-      <c r="V93">
-        <v>5.18</v>
-      </c>
-      <c r="W93" t="s">
+        <v>2.75</v>
+      </c>
+      <c r="V93" t="s">
         <v>39</v>
       </c>
+      <c r="W93">
+        <v>5</v>
+      </c>
       <c r="X93">
-        <v>5</v>
-      </c>
-      <c r="Y93">
-        <f t="shared" si="1"/>
-        <v>1.036</v>
-      </c>
-    </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U93/W93</f>
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A94" t="s">
         <v>30</v>
       </c>
@@ -9395,28 +9392,29 @@
         <f>R94/Q94</f>
         <v>0.1</v>
       </c>
-      <c r="U94" t="s">
-        <v>37</v>
+      <c r="T94">
+        <v>18.05</v>
+      </c>
+      <c r="U94">
+        <v>21.31</v>
       </c>
       <c r="V94" t="s">
-        <v>37</v>
-      </c>
-      <c r="W94" t="s">
-        <v>37</v>
-      </c>
-      <c r="X94" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y94" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.75">
+        <v>39</v>
+      </c>
+      <c r="W94">
+        <v>5</v>
+      </c>
+      <c r="X94">
+        <f>U94/W94</f>
+        <v>4.2619999999999996</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A95" t="s">
-        <v>428</v>
+        <v>475</v>
       </c>
       <c r="B95" t="s">
-        <v>550</v>
+        <v>502</v>
       </c>
       <c r="C95" t="s">
         <v>216</v>
@@ -9470,24 +9468,24 @@
       <c r="S95">
         <v>8.6E-3</v>
       </c>
-      <c r="U95" t="s">
-        <v>37</v>
-      </c>
-      <c r="V95">
-        <v>2.75</v>
-      </c>
-      <c r="W95" t="s">
-        <v>39</v>
+      <c r="T95">
+        <v>17</v>
+      </c>
+      <c r="U95">
+        <v>415</v>
+      </c>
+      <c r="V95" t="s">
+        <v>3</v>
+      </c>
+      <c r="W95">
+        <v>10</v>
       </c>
       <c r="X95">
-        <v>5</v>
-      </c>
-      <c r="Y95">
-        <f t="shared" si="1"/>
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U95/W95</f>
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A96" t="s">
         <v>217</v>
       </c>
@@ -9546,24 +9544,24 @@
       <c r="S96">
         <v>1.0000000000000001E-5</v>
       </c>
+      <c r="T96" t="s">
+        <v>37</v>
+      </c>
       <c r="U96">
-        <v>17</v>
-      </c>
-      <c r="V96">
-        <v>415</v>
-      </c>
-      <c r="W96" t="s">
+        <v>1000</v>
+      </c>
+      <c r="V96" t="s">
         <v>3</v>
       </c>
+      <c r="W96">
+        <v>10</v>
+      </c>
       <c r="X96">
-        <v>10</v>
-      </c>
-      <c r="Y96">
-        <f t="shared" si="1"/>
-        <v>41.5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U96/W96</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A97" t="s">
         <v>219</v>
       </c>
@@ -9623,28 +9621,28 @@
         <f>R97/Q97</f>
         <v>8.7000000000000001E-4</v>
       </c>
-      <c r="U97" t="s">
-        <v>37</v>
-      </c>
-      <c r="V97">
-        <v>1000</v>
-      </c>
-      <c r="W97" t="s">
-        <v>3</v>
+      <c r="T97">
+        <v>6.4</v>
+      </c>
+      <c r="U97">
+        <v>106.6</v>
+      </c>
+      <c r="V97" t="s">
+        <v>39</v>
+      </c>
+      <c r="W97">
+        <v>5</v>
       </c>
       <c r="X97">
-        <v>10</v>
-      </c>
-      <c r="Y97">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.75">
-      <c r="A98" t="s">
+        <f>U97/W97</f>
+        <v>21.32</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24" x14ac:dyDescent="0.75">
+      <c r="A98" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="B98" s="11" t="s">
+      <c r="B98" t="s">
         <v>223</v>
       </c>
       <c r="C98" t="s">
@@ -9700,29 +9698,29 @@
         <f>R98/Q98</f>
         <v>0.18</v>
       </c>
+      <c r="T98">
+        <v>174</v>
+      </c>
       <c r="U98">
-        <v>6.4</v>
-      </c>
-      <c r="V98">
-        <v>106.6</v>
-      </c>
-      <c r="W98" t="s">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="V98" t="s">
         <v>39</v>
       </c>
+      <c r="W98">
+        <v>5</v>
+      </c>
       <c r="X98">
-        <v>5</v>
-      </c>
-      <c r="Y98">
-        <f t="shared" si="1"/>
-        <v>21.32</v>
-      </c>
-    </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.75">
-      <c r="A99" t="s">
-        <v>429</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>507</v>
+        <f>U98/W98</f>
+        <v>3.56E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24" x14ac:dyDescent="0.75">
+      <c r="A99" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="B99" t="s">
+        <v>503</v>
       </c>
       <c r="C99" t="s">
         <v>225</v>
@@ -9775,29 +9773,28 @@
       <c r="S99" t="s">
         <v>42</v>
       </c>
-      <c r="U99">
-        <v>174</v>
-      </c>
-      <c r="V99">
-        <v>0.17799999999999999</v>
+      <c r="T99" t="s">
+        <v>42</v>
+      </c>
+      <c r="U99" t="s">
+        <v>42</v>
+      </c>
+      <c r="V99" t="s">
+        <v>42</v>
       </c>
       <c r="W99" t="s">
-        <v>39</v>
-      </c>
-      <c r="X99">
-        <v>5</v>
-      </c>
-      <c r="Y99">
-        <f t="shared" si="1"/>
-        <v>3.56E-2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.75">
+        <v>42</v>
+      </c>
+      <c r="X99" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A100" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B100" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C100" t="s">
         <v>226</v>
@@ -9850,6 +9847,9 @@
       <c r="S100" t="s">
         <v>42</v>
       </c>
+      <c r="T100" t="s">
+        <v>42</v>
+      </c>
       <c r="U100" t="s">
         <v>42</v>
       </c>
@@ -9862,11 +9862,8 @@
       <c r="X100" t="s">
         <v>42</v>
       </c>
-      <c r="Y100" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.75">
+    </row>
+    <row r="101" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A101" t="s">
         <v>227</v>
       </c>
@@ -9926,23 +9923,24 @@
         <f>R101/Q101</f>
         <v>1.8E-5</v>
       </c>
-      <c r="U101" t="s">
-        <v>42</v>
+      <c r="T101">
+        <v>5.97</v>
+      </c>
+      <c r="U101">
+        <v>6.6</v>
       </c>
       <c r="V101" t="s">
-        <v>42</v>
-      </c>
-      <c r="W101" t="s">
-        <v>42</v>
-      </c>
-      <c r="X101" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y101" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.75">
+        <v>39</v>
+      </c>
+      <c r="W101">
+        <v>5</v>
+      </c>
+      <c r="X101">
+        <f>U101/W101</f>
+        <v>1.3199999999999998</v>
+      </c>
+    </row>
+    <row r="102" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A102" t="s">
         <v>230</v>
       </c>
@@ -10001,24 +9999,24 @@
       <c r="S102">
         <v>3.78E-2</v>
       </c>
+      <c r="T102">
+        <v>15.5</v>
+      </c>
       <c r="U102">
-        <v>5.97</v>
-      </c>
-      <c r="V102">
-        <v>6.6</v>
-      </c>
-      <c r="W102" t="s">
+        <v>3.37</v>
+      </c>
+      <c r="V102" t="s">
         <v>39</v>
       </c>
+      <c r="W102">
+        <v>5</v>
+      </c>
       <c r="X102">
-        <v>5</v>
-      </c>
-      <c r="Y102">
-        <f t="shared" si="1"/>
-        <v>1.3199999999999998</v>
-      </c>
-    </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U102/W102</f>
+        <v>0.67400000000000004</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A103" t="s">
         <v>232</v>
       </c>
@@ -10078,24 +10076,24 @@
         <f>R103/Q103</f>
         <v>5.1999999999999998E-3</v>
       </c>
+      <c r="T103">
+        <v>23</v>
+      </c>
       <c r="U103">
-        <v>15.5</v>
-      </c>
-      <c r="V103">
-        <v>3.37</v>
-      </c>
-      <c r="W103" t="s">
-        <v>39</v>
+        <v>1000</v>
+      </c>
+      <c r="V103" t="s">
+        <v>3</v>
+      </c>
+      <c r="W103">
+        <v>10</v>
       </c>
       <c r="X103">
-        <v>5</v>
-      </c>
-      <c r="Y103">
-        <f t="shared" si="1"/>
-        <v>0.67400000000000004</v>
-      </c>
-    </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U103/W103</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A104" t="s">
         <v>234</v>
       </c>
@@ -10155,24 +10153,24 @@
         <f>R104/Q104</f>
         <v>6.8999999999999992E-2</v>
       </c>
+      <c r="T104">
+        <v>123</v>
+      </c>
       <c r="U104">
-        <v>23</v>
-      </c>
-      <c r="V104">
-        <v>1000</v>
-      </c>
-      <c r="W104" t="s">
-        <v>3</v>
+        <v>3.34</v>
+      </c>
+      <c r="V104" t="s">
+        <v>39</v>
+      </c>
+      <c r="W104">
+        <v>5</v>
       </c>
       <c r="X104">
-        <v>10</v>
-      </c>
-      <c r="Y104">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U104/W104</f>
+        <v>0.66799999999999993</v>
+      </c>
+    </row>
+    <row r="105" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A105" t="s">
         <v>236</v>
       </c>
@@ -10232,29 +10230,29 @@
         <f>R105/Q105</f>
         <v>1.4000000000000001E-4</v>
       </c>
+      <c r="T105">
+        <v>1.3</v>
+      </c>
       <c r="U105">
-        <v>123</v>
-      </c>
-      <c r="V105">
-        <v>3.34</v>
-      </c>
-      <c r="W105" t="s">
+        <v>8.9</v>
+      </c>
+      <c r="V105" t="s">
         <v>39</v>
       </c>
+      <c r="W105">
+        <v>5</v>
+      </c>
       <c r="X105">
-        <v>5</v>
-      </c>
-      <c r="Y105">
-        <f t="shared" si="1"/>
-        <v>0.66799999999999993</v>
-      </c>
-    </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U105/W105</f>
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A106" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B106" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C106" t="s">
         <v>238</v>
@@ -10309,29 +10307,29 @@
         <f>R106/Q106</f>
         <v>1.2999999999999999E-4</v>
       </c>
+      <c r="T106">
+        <v>1</v>
+      </c>
       <c r="U106">
-        <v>1.3</v>
-      </c>
-      <c r="V106">
-        <v>8.9</v>
-      </c>
-      <c r="W106" t="s">
-        <v>39</v>
+        <v>469</v>
+      </c>
+      <c r="V106" t="s">
+        <v>3</v>
+      </c>
+      <c r="W106">
+        <v>10</v>
       </c>
       <c r="X106">
-        <v>5</v>
-      </c>
-      <c r="Y106">
-        <f t="shared" si="1"/>
-        <v>1.78</v>
-      </c>
-    </row>
-    <row r="107" spans="1:25" ht="16" x14ac:dyDescent="0.8">
+        <f>U106/W106</f>
+        <v>46.9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24" ht="16" x14ac:dyDescent="0.8">
       <c r="A107" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B107" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C107" t="s">
         <v>239</v>
@@ -10386,24 +10384,24 @@
         <f>R107/Q107</f>
         <v>2.2000000000000001E-7</v>
       </c>
+      <c r="T107">
+        <v>26.9</v>
+      </c>
       <c r="U107">
-        <v>1</v>
-      </c>
-      <c r="V107">
-        <v>469</v>
-      </c>
-      <c r="W107" t="s">
-        <v>3</v>
+        <v>0.22</v>
+      </c>
+      <c r="V107" t="s">
+        <v>4</v>
+      </c>
+      <c r="W107">
+        <v>10</v>
       </c>
       <c r="X107">
-        <v>10</v>
-      </c>
-      <c r="Y107">
-        <f t="shared" si="1"/>
-        <v>46.9</v>
-      </c>
-    </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U107/W107</f>
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A108" t="s">
         <v>240</v>
       </c>
@@ -10463,29 +10461,29 @@
         <f>R108/Q108</f>
         <v>1E-3</v>
       </c>
+      <c r="T108">
+        <v>39.799999999999997</v>
+      </c>
       <c r="U108">
-        <v>26.9</v>
-      </c>
-      <c r="V108">
-        <v>0.22</v>
-      </c>
-      <c r="W108" t="s">
-        <v>4</v>
+        <v>1000</v>
+      </c>
+      <c r="V108" t="s">
+        <v>39</v>
+      </c>
+      <c r="W108">
+        <v>5</v>
       </c>
       <c r="X108">
-        <v>10</v>
-      </c>
-      <c r="Y108">
-        <f t="shared" si="1"/>
-        <v>2.1999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U108/W108</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="109" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A109" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B109" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C109" t="s">
         <v>242</v>
@@ -10539,24 +10537,24 @@
       <c r="S109">
         <v>0.28999999999999998</v>
       </c>
+      <c r="T109">
+        <v>148</v>
+      </c>
       <c r="U109">
-        <v>39.799999999999997</v>
-      </c>
-      <c r="V109">
-        <v>1000</v>
-      </c>
-      <c r="W109" t="s">
-        <v>39</v>
+        <v>68</v>
+      </c>
+      <c r="V109" t="s">
+        <v>3</v>
+      </c>
+      <c r="W109">
+        <v>10</v>
       </c>
       <c r="X109">
-        <v>5</v>
-      </c>
-      <c r="Y109">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U109/W109</f>
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A110" t="s">
         <v>243</v>
       </c>
@@ -10616,24 +10614,24 @@
         <f>R110/Q110</f>
         <v>1E-3</v>
       </c>
+      <c r="T110">
+        <v>48</v>
+      </c>
       <c r="U110">
-        <v>148</v>
-      </c>
-      <c r="V110">
-        <v>68</v>
-      </c>
-      <c r="W110" t="s">
-        <v>3</v>
+        <v>6.78</v>
+      </c>
+      <c r="V110" t="s">
+        <v>39</v>
+      </c>
+      <c r="W110">
+        <v>5</v>
       </c>
       <c r="X110">
-        <v>10</v>
-      </c>
-      <c r="Y110">
-        <f t="shared" si="1"/>
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U110/W110</f>
+        <v>1.3560000000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A111" t="s">
         <v>245</v>
       </c>
@@ -10693,24 +10691,24 @@
         <f>R111/Q111</f>
         <v>0.01</v>
       </c>
+      <c r="T111">
+        <v>13.6</v>
+      </c>
       <c r="U111">
-        <v>48</v>
-      </c>
-      <c r="V111">
-        <v>6.78</v>
-      </c>
-      <c r="W111" t="s">
+        <v>16</v>
+      </c>
+      <c r="V111" t="s">
         <v>39</v>
       </c>
+      <c r="W111">
+        <v>5</v>
+      </c>
       <c r="X111">
-        <v>5</v>
-      </c>
-      <c r="Y111">
-        <f t="shared" si="1"/>
-        <v>1.3560000000000001</v>
-      </c>
-    </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U111/W111</f>
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A112" t="s">
         <v>247</v>
       </c>
@@ -10769,29 +10767,29 @@
       <c r="S112">
         <v>1.5</v>
       </c>
+      <c r="T112">
+        <v>25</v>
+      </c>
       <c r="U112">
-        <v>13.6</v>
-      </c>
-      <c r="V112">
-        <v>16</v>
-      </c>
-      <c r="W112" t="s">
-        <v>39</v>
+        <v>325</v>
+      </c>
+      <c r="V112" t="s">
+        <v>3</v>
+      </c>
+      <c r="W112">
+        <v>10</v>
       </c>
       <c r="X112">
-        <v>5</v>
-      </c>
-      <c r="Y112">
-        <f t="shared" si="1"/>
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U112/W112</f>
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A113" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B113" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C113" t="s">
         <v>249</v>
@@ -10845,29 +10843,29 @@
       <c r="S113">
         <v>2.27</v>
       </c>
+      <c r="T113">
+        <v>21</v>
+      </c>
       <c r="U113">
-        <v>25</v>
-      </c>
-      <c r="V113">
-        <v>325</v>
-      </c>
-      <c r="W113" t="s">
-        <v>3</v>
+        <v>10.8</v>
+      </c>
+      <c r="V113" t="s">
+        <v>39</v>
+      </c>
+      <c r="W113">
+        <v>5</v>
       </c>
       <c r="X113">
-        <v>10</v>
-      </c>
-      <c r="Y113">
-        <f t="shared" si="1"/>
-        <v>32.5</v>
-      </c>
-    </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U113/W113</f>
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="114" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A114" t="s">
+        <v>475</v>
+      </c>
+      <c r="B114" t="s">
         <v>398</v>
-      </c>
-      <c r="B114" t="s">
-        <v>550</v>
       </c>
       <c r="C114" t="s">
         <v>250</v>
@@ -10922,29 +10920,29 @@
         <f>R114/Q114</f>
         <v>1.52E-5</v>
       </c>
+      <c r="T114">
+        <v>15</v>
+      </c>
       <c r="U114">
-        <v>21</v>
-      </c>
-      <c r="V114">
-        <v>10.8</v>
-      </c>
-      <c r="W114" t="s">
-        <v>39</v>
+        <v>302</v>
+      </c>
+      <c r="V114" t="s">
+        <v>3</v>
+      </c>
+      <c r="W114">
+        <v>10</v>
       </c>
       <c r="X114">
-        <v>5</v>
-      </c>
-      <c r="Y114">
-        <f t="shared" si="1"/>
-        <v>2.16</v>
-      </c>
-    </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U114/W114</f>
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A115" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B115" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C115" t="s">
         <v>251</v>
@@ -10997,176 +10995,175 @@
       <c r="S115" t="s">
         <v>42</v>
       </c>
+      <c r="T115">
+        <v>15</v>
+      </c>
       <c r="U115">
-        <v>15</v>
-      </c>
-      <c r="V115">
-        <v>302</v>
-      </c>
-      <c r="W115" t="s">
-        <v>3</v>
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="V115" t="s">
+        <v>39</v>
+      </c>
+      <c r="W115">
+        <v>5</v>
       </c>
       <c r="X115">
-        <v>10</v>
-      </c>
-      <c r="Y115">
-        <f t="shared" si="1"/>
-        <v>30.2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U115/W115</f>
+        <v>0.81199999999999994</v>
+      </c>
+    </row>
+    <row r="116" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A116" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B116" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C116" t="s">
+        <v>253</v>
+      </c>
+      <c r="D116" t="s">
+        <v>42</v>
+      </c>
+      <c r="E116" t="s">
+        <v>37</v>
+      </c>
+      <c r="F116" t="s">
+        <v>37</v>
+      </c>
+      <c r="G116" t="s">
+        <v>37</v>
+      </c>
+      <c r="H116" t="s">
+        <v>37</v>
+      </c>
+      <c r="I116" t="s">
+        <v>37</v>
+      </c>
+      <c r="J116" t="s">
+        <v>37</v>
+      </c>
+      <c r="K116" t="s">
+        <v>37</v>
+      </c>
+      <c r="L116" t="s">
+        <v>37</v>
+      </c>
+      <c r="M116" t="s">
+        <v>37</v>
+      </c>
+      <c r="N116" t="s">
+        <v>37</v>
+      </c>
+      <c r="O116">
+        <v>4.38</v>
+      </c>
+      <c r="P116" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q116">
+        <v>1000</v>
+      </c>
+      <c r="R116">
+        <v>852</v>
+      </c>
+      <c r="S116">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="T116" s="5">
+        <v>51</v>
+      </c>
+      <c r="U116" t="s">
+        <v>37</v>
+      </c>
+      <c r="V116" t="s">
+        <v>37</v>
+      </c>
+      <c r="W116" t="s">
+        <v>37</v>
+      </c>
+      <c r="X116" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="117" spans="1:24" x14ac:dyDescent="0.75">
+      <c r="A117" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="B117" t="s">
+        <v>511</v>
+      </c>
+      <c r="C117" t="s">
         <v>252</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D117" t="s">
         <v>55</v>
       </c>
-      <c r="E116">
+      <c r="E117">
         <v>26000</v>
       </c>
-      <c r="F116" t="s">
+      <c r="F117" t="s">
         <v>33</v>
       </c>
-      <c r="G116">
+      <c r="G117">
         <f>5.13*10^1</f>
         <v>51.3</v>
       </c>
-      <c r="H116">
+      <c r="H117">
         <v>1.71</v>
       </c>
-      <c r="I116" t="s">
+      <c r="I117" t="s">
         <v>34</v>
       </c>
-      <c r="J116">
+      <c r="J117">
         <v>24.8</v>
       </c>
-      <c r="K116" t="s">
+      <c r="K117" t="s">
         <v>73</v>
       </c>
-      <c r="L116">
+      <c r="L117">
         <v>15</v>
       </c>
-      <c r="M116" t="s">
+      <c r="M117" t="s">
         <v>36</v>
       </c>
-      <c r="N116" t="s">
-        <v>37</v>
-      </c>
-      <c r="O116">
+      <c r="N117" t="s">
+        <v>37</v>
+      </c>
+      <c r="O117">
         <v>2.42</v>
       </c>
-      <c r="P116" t="s">
+      <c r="P117" t="s">
         <v>59</v>
       </c>
-      <c r="Q116">
+      <c r="Q117">
         <v>100</v>
       </c>
-      <c r="R116">
+      <c r="R117">
         <v>1.2</v>
       </c>
-      <c r="S116">
-        <f>R116/Q116</f>
+      <c r="S117">
+        <f>R117/Q117</f>
         <v>1.2E-2</v>
       </c>
-      <c r="U116">
-        <v>15</v>
-      </c>
-      <c r="V116">
-        <v>4.0599999999999996</v>
-      </c>
-      <c r="W116" t="s">
+      <c r="T117">
+        <v>14.1</v>
+      </c>
+      <c r="U117">
+        <v>35.630000000000003</v>
+      </c>
+      <c r="V117" t="s">
         <v>39</v>
       </c>
-      <c r="X116">
+      <c r="W117">
         <v>5</v>
       </c>
-      <c r="Y116">
-        <f t="shared" si="1"/>
-        <v>0.81199999999999994</v>
-      </c>
-    </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.75">
-      <c r="A117" t="s">
-        <v>437</v>
-      </c>
-      <c r="B117" s="10" t="s">
-        <v>515</v>
-      </c>
-      <c r="C117" t="s">
-        <v>253</v>
-      </c>
-      <c r="D117" t="s">
-        <v>42</v>
-      </c>
-      <c r="E117" t="s">
-        <v>37</v>
-      </c>
-      <c r="F117" t="s">
-        <v>37</v>
-      </c>
-      <c r="G117" t="s">
-        <v>37</v>
-      </c>
-      <c r="H117" t="s">
-        <v>37</v>
-      </c>
-      <c r="I117" t="s">
-        <v>37</v>
-      </c>
-      <c r="J117" t="s">
-        <v>37</v>
-      </c>
-      <c r="K117" t="s">
-        <v>37</v>
-      </c>
-      <c r="L117" t="s">
-        <v>37</v>
-      </c>
-      <c r="M117" t="s">
-        <v>37</v>
-      </c>
-      <c r="N117" t="s">
-        <v>37</v>
-      </c>
-      <c r="O117">
-        <v>4.38</v>
-      </c>
-      <c r="P117" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q117">
-        <v>1000</v>
-      </c>
-      <c r="R117">
-        <v>852</v>
-      </c>
-      <c r="S117">
-        <v>0.85199999999999998</v>
-      </c>
-      <c r="U117">
-        <v>14.1</v>
-      </c>
-      <c r="V117">
-        <v>35.630000000000003</v>
-      </c>
-      <c r="W117" t="s">
-        <v>39</v>
-      </c>
       <c r="X117">
-        <v>5</v>
-      </c>
-      <c r="Y117">
-        <f t="shared" si="1"/>
+        <f>U117/W117</f>
         <v>7.1260000000000003</v>
       </c>
     </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A118" t="s">
         <v>254</v>
       </c>
@@ -11226,28 +11223,29 @@
         <f>R118/Q118</f>
         <v>0.01</v>
       </c>
-      <c r="U118" s="5">
-        <v>51</v>
+      <c r="T118">
+        <v>11.1</v>
+      </c>
+      <c r="U118">
+        <v>22.4</v>
       </c>
       <c r="V118" t="s">
-        <v>37</v>
-      </c>
-      <c r="W118" t="s">
-        <v>37</v>
-      </c>
-      <c r="X118" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y118" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.75">
+        <v>39</v>
+      </c>
+      <c r="W118">
+        <v>5</v>
+      </c>
+      <c r="X118">
+        <f>U118/W118</f>
+        <v>4.4799999999999995</v>
+      </c>
+    </row>
+    <row r="119" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A119" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B119" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C119" t="s">
         <v>256</v>
@@ -11300,24 +11298,24 @@
       <c r="S119">
         <v>7.3200000000000001E-2</v>
       </c>
+      <c r="T119">
+        <v>31.1</v>
+      </c>
       <c r="U119">
-        <v>11.1</v>
-      </c>
-      <c r="V119">
-        <v>22.4</v>
-      </c>
-      <c r="W119" t="s">
+        <v>100</v>
+      </c>
+      <c r="V119" t="s">
         <v>39</v>
       </c>
+      <c r="W119">
+        <v>5</v>
+      </c>
       <c r="X119">
-        <v>5</v>
-      </c>
-      <c r="Y119">
-        <f t="shared" si="1"/>
-        <v>4.4799999999999995</v>
-      </c>
-    </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U119/W119</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A120" t="s">
         <v>257</v>
       </c>
@@ -11377,24 +11375,24 @@
         <f>R120/Q120</f>
         <v>0.01</v>
       </c>
+      <c r="T120">
+        <v>6.8</v>
+      </c>
       <c r="U120">
-        <v>31.1</v>
-      </c>
-      <c r="V120">
-        <v>100</v>
-      </c>
-      <c r="W120" t="s">
+        <v>2.31</v>
+      </c>
+      <c r="V120" t="s">
         <v>39</v>
       </c>
+      <c r="W120">
+        <v>5</v>
+      </c>
       <c r="X120">
-        <v>5</v>
-      </c>
-      <c r="Y120">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U120/W120</f>
+        <v>0.46200000000000002</v>
+      </c>
+    </row>
+    <row r="121" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A121" t="s">
         <v>259</v>
       </c>
@@ -11454,24 +11452,24 @@
         <f>R121/Q121</f>
         <v>1.6000000000000001E-3</v>
       </c>
+      <c r="T121">
+        <v>134.69999999999999</v>
+      </c>
       <c r="U121">
-        <v>6.8</v>
-      </c>
-      <c r="V121">
-        <v>2.31</v>
-      </c>
-      <c r="W121" t="s">
+        <v>20</v>
+      </c>
+      <c r="V121" t="s">
         <v>39</v>
       </c>
+      <c r="W121">
+        <v>5</v>
+      </c>
       <c r="X121">
-        <v>5</v>
-      </c>
-      <c r="Y121">
-        <f t="shared" si="1"/>
-        <v>0.46200000000000002</v>
-      </c>
-    </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U121/W121</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A122" t="s">
         <v>261</v>
       </c>
@@ -11531,24 +11529,24 @@
         <f>R122/Q122</f>
         <v>1.7999999999999998E-4</v>
       </c>
+      <c r="T122" t="s">
+        <v>37</v>
+      </c>
       <c r="U122">
-        <v>134.69999999999999</v>
-      </c>
-      <c r="V122">
-        <v>20</v>
-      </c>
-      <c r="W122" t="s">
-        <v>39</v>
+        <v>840</v>
+      </c>
+      <c r="V122" t="s">
+        <v>3</v>
+      </c>
+      <c r="W122">
+        <v>10</v>
       </c>
       <c r="X122">
-        <v>5</v>
-      </c>
-      <c r="Y122">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U122/W122</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="123" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A123" t="s">
         <v>263</v>
       </c>
@@ -11607,29 +11605,29 @@
       <c r="S123">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="U123" t="s">
-        <v>37</v>
-      </c>
-      <c r="V123">
-        <v>840</v>
-      </c>
-      <c r="W123" t="s">
-        <v>3</v>
+      <c r="T123">
+        <v>35</v>
+      </c>
+      <c r="U123">
+        <v>0.161</v>
+      </c>
+      <c r="V123" t="s">
+        <v>39</v>
+      </c>
+      <c r="W123">
+        <v>5</v>
       </c>
       <c r="X123">
-        <v>10</v>
-      </c>
-      <c r="Y123">
-        <f t="shared" si="1"/>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U123/W123</f>
+        <v>3.2199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A124" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B124" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C124" t="s">
         <v>266</v>
@@ -11682,29 +11680,28 @@
       <c r="S124" t="s">
         <v>42</v>
       </c>
-      <c r="U124">
-        <v>35</v>
-      </c>
-      <c r="V124">
-        <v>0.161</v>
+      <c r="T124" t="s">
+        <v>42</v>
+      </c>
+      <c r="U124" t="s">
+        <v>42</v>
+      </c>
+      <c r="V124" t="s">
+        <v>42</v>
       </c>
       <c r="W124" t="s">
-        <v>39</v>
-      </c>
-      <c r="X124">
-        <v>5</v>
-      </c>
-      <c r="Y124">
-        <f t="shared" si="1"/>
-        <v>3.2199999999999999E-2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.75">
+        <v>42</v>
+      </c>
+      <c r="X124" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="125" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A125" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B125" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C125" t="s">
         <v>267</v>
@@ -11756,28 +11753,29 @@
         <f>R125/Q125</f>
         <v>5.5999999999999999E-5</v>
       </c>
-      <c r="U125" t="s">
-        <v>42</v>
+      <c r="T125" t="s">
+        <v>37</v>
+      </c>
+      <c r="U125">
+        <v>78</v>
       </c>
       <c r="V125" t="s">
-        <v>42</v>
-      </c>
-      <c r="W125" t="s">
-        <v>42</v>
-      </c>
-      <c r="X125" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y125" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.75">
+        <v>3</v>
+      </c>
+      <c r="W125">
+        <v>10</v>
+      </c>
+      <c r="X125">
+        <f>U125/W125</f>
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A126" t="s">
+        <v>444</v>
+      </c>
+      <c r="B126" t="s">
         <v>399</v>
-      </c>
-      <c r="B126" t="s">
-        <v>519</v>
       </c>
       <c r="C126" t="s">
         <v>268</v>
@@ -11832,24 +11830,24 @@
         <f>R126/Q126</f>
         <v>6.4999999999999994E-5</v>
       </c>
-      <c r="U126" t="s">
-        <v>37</v>
-      </c>
-      <c r="V126">
-        <v>78</v>
-      </c>
-      <c r="W126" t="s">
-        <v>3</v>
+      <c r="T126">
+        <v>68</v>
+      </c>
+      <c r="U126">
+        <v>0.64</v>
+      </c>
+      <c r="V126" t="s">
+        <v>39</v>
+      </c>
+      <c r="W126">
+        <v>5</v>
       </c>
       <c r="X126">
-        <v>10</v>
-      </c>
-      <c r="Y126">
-        <f t="shared" si="1"/>
-        <v>7.8</v>
-      </c>
-    </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U126/W126</f>
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="127" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A127" t="s">
         <v>269</v>
       </c>
@@ -11908,29 +11906,29 @@
       <c r="S127">
         <v>2.5000000000000001E-3</v>
       </c>
+      <c r="T127">
+        <v>22.4</v>
+      </c>
       <c r="U127">
-        <v>68</v>
-      </c>
-      <c r="V127">
-        <v>0.64</v>
-      </c>
-      <c r="W127" t="s">
+        <v>23.66</v>
+      </c>
+      <c r="V127" t="s">
         <v>39</v>
       </c>
+      <c r="W127">
+        <v>5</v>
+      </c>
       <c r="X127">
-        <v>5</v>
-      </c>
-      <c r="Y127">
-        <f t="shared" si="1"/>
-        <v>0.128</v>
-      </c>
-    </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U127/W127</f>
+        <v>4.7320000000000002</v>
+      </c>
+    </row>
+    <row r="128" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A128" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="B128" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="C128" t="s">
         <v>271</v>
@@ -11985,29 +11983,29 @@
         <f>R128/Q128</f>
         <v>1.2000000000000001E-3</v>
       </c>
+      <c r="T128">
+        <v>21</v>
+      </c>
       <c r="U128">
-        <v>22.4</v>
-      </c>
-      <c r="V128">
-        <v>23.66</v>
-      </c>
-      <c r="W128" t="s">
-        <v>39</v>
+        <v>140</v>
+      </c>
+      <c r="V128" t="s">
+        <v>3</v>
+      </c>
+      <c r="W128">
+        <v>10</v>
       </c>
       <c r="X128">
-        <v>5</v>
-      </c>
-      <c r="Y128">
-        <f t="shared" si="1"/>
-        <v>4.7320000000000002</v>
-      </c>
-    </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U128/W128</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="129" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A129" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B129" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C129" t="s">
         <v>272</v>
@@ -12062,29 +12060,29 @@
         <f>R129/Q129</f>
         <v>2.1700000000000001E-2</v>
       </c>
+      <c r="T129" t="s">
+        <v>37</v>
+      </c>
       <c r="U129">
-        <v>21</v>
-      </c>
-      <c r="V129">
-        <v>140</v>
-      </c>
-      <c r="W129" t="s">
-        <v>3</v>
+        <v>50</v>
+      </c>
+      <c r="V129" t="s">
+        <v>39</v>
+      </c>
+      <c r="W129">
+        <v>5</v>
       </c>
       <c r="X129">
+        <f>U129/W129</f>
         <v>10</v>
       </c>
-      <c r="Y129">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.75">
+    </row>
+    <row r="130" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A130" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B130" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C130" t="s">
         <v>273</v>
@@ -12138,24 +12136,24 @@
         <f>R130/Q130</f>
         <v>1.66E-2</v>
       </c>
-      <c r="U130" t="s">
-        <v>37</v>
-      </c>
-      <c r="V130">
-        <v>50</v>
-      </c>
-      <c r="W130" t="s">
+      <c r="T130" t="s">
+        <v>37</v>
+      </c>
+      <c r="U130">
+        <v>27.8</v>
+      </c>
+      <c r="V130" t="s">
         <v>39</v>
       </c>
+      <c r="W130">
+        <v>5</v>
+      </c>
       <c r="X130">
-        <v>5</v>
-      </c>
-      <c r="Y130">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U130/W130</f>
+        <v>5.5600000000000005</v>
+      </c>
+    </row>
+    <row r="131" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A131" t="s">
         <v>274</v>
       </c>
@@ -12214,24 +12212,24 @@
       <c r="S131">
         <v>2.2500000000000003E-3</v>
       </c>
-      <c r="U131" t="s">
-        <v>37</v>
-      </c>
-      <c r="V131">
-        <v>27.8</v>
-      </c>
-      <c r="W131" t="s">
+      <c r="T131">
+        <v>62</v>
+      </c>
+      <c r="U131">
+        <v>37.5</v>
+      </c>
+      <c r="V131" t="s">
         <v>39</v>
       </c>
+      <c r="W131">
+        <v>5</v>
+      </c>
       <c r="X131">
-        <v>5</v>
-      </c>
-      <c r="Y131">
-        <f t="shared" si="1"/>
-        <v>5.5600000000000005</v>
-      </c>
-    </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U131/W131</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A132" t="s">
         <v>276</v>
       </c>
@@ -12290,29 +12288,29 @@
       <c r="S132">
         <v>1.6100000000000001E-4</v>
       </c>
+      <c r="T132">
+        <v>19</v>
+      </c>
       <c r="U132">
-        <v>62</v>
-      </c>
-      <c r="V132">
-        <v>37.5</v>
-      </c>
-      <c r="W132" t="s">
+        <v>15.95</v>
+      </c>
+      <c r="V132" t="s">
         <v>39</v>
       </c>
+      <c r="W132">
+        <v>5</v>
+      </c>
       <c r="X132">
-        <v>5</v>
-      </c>
-      <c r="Y132">
-        <f t="shared" si="1"/>
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U132/W132</f>
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="133" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A133" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="B133" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="C133" t="s">
         <v>278</v>
@@ -12367,28 +12365,28 @@
         <f>R133/Q133</f>
         <v>2E-3</v>
       </c>
+      <c r="T133">
+        <v>13.3</v>
+      </c>
       <c r="U133">
-        <v>19</v>
-      </c>
-      <c r="V133">
-        <v>15.95</v>
-      </c>
-      <c r="W133" t="s">
+        <v>0.83</v>
+      </c>
+      <c r="V133" t="s">
         <v>39</v>
       </c>
+      <c r="W133">
+        <v>5</v>
+      </c>
       <c r="X133">
-        <v>5</v>
-      </c>
-      <c r="Y133">
-        <f t="shared" si="1"/>
-        <v>3.19</v>
-      </c>
-    </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.75">
-      <c r="A134" t="s">
+        <f>U133/W133</f>
+        <v>0.16599999999999998</v>
+      </c>
+    </row>
+    <row r="134" spans="1:24" x14ac:dyDescent="0.75">
+      <c r="A134" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="B134" t="s">
         <v>279</v>
       </c>
       <c r="C134" t="s">
@@ -12443,29 +12441,29 @@
       <c r="S134" s="14">
         <v>4.0000000000000001E-3</v>
       </c>
+      <c r="T134">
+        <v>35</v>
+      </c>
       <c r="U134">
-        <v>13.3</v>
-      </c>
-      <c r="V134">
-        <v>0.83</v>
-      </c>
-      <c r="W134" t="s">
+        <v>10.3</v>
+      </c>
+      <c r="V134" t="s">
         <v>39</v>
       </c>
+      <c r="W134">
+        <v>5</v>
+      </c>
       <c r="X134">
-        <v>5</v>
-      </c>
-      <c r="Y134">
-        <f t="shared" si="1"/>
-        <v>0.16599999999999998</v>
-      </c>
-    </row>
-    <row r="135" spans="1:25" ht="16" x14ac:dyDescent="0.8">
+        <f>U134/W134</f>
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="135" spans="1:24" ht="16" x14ac:dyDescent="0.8">
       <c r="A135" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B135" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="C135" t="s">
         <v>281</v>
@@ -12520,29 +12518,29 @@
         <f>R135/Q135</f>
         <v>8.0000000000000004E-4</v>
       </c>
+      <c r="T135">
+        <v>32.200000000000003</v>
+      </c>
       <c r="U135">
-        <v>35</v>
-      </c>
-      <c r="V135">
-        <v>10.3</v>
-      </c>
-      <c r="W135" t="s">
+        <v>41.7</v>
+      </c>
+      <c r="V135" t="s">
         <v>39</v>
       </c>
+      <c r="W135">
+        <v>5</v>
+      </c>
       <c r="X135">
-        <v>5</v>
-      </c>
-      <c r="Y135">
-        <f t="shared" ref="Y135:Y198" si="2">V135/X135</f>
-        <v>2.06</v>
-      </c>
-    </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U135/W135</f>
+        <v>8.34</v>
+      </c>
+    </row>
+    <row r="136" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A136" t="s">
+        <v>475</v>
+      </c>
+      <c r="B136" t="s">
         <v>282</v>
-      </c>
-      <c r="B136" t="s">
-        <v>550</v>
       </c>
       <c r="C136" t="s">
         <v>283</v>
@@ -12597,29 +12595,29 @@
         <f>R136/Q136</f>
         <v>0.52</v>
       </c>
+      <c r="T136">
+        <v>19.3</v>
+      </c>
       <c r="U136">
-        <v>32.200000000000003</v>
-      </c>
-      <c r="V136">
-        <v>41.7</v>
-      </c>
-      <c r="W136" t="s">
+        <v>0.1</v>
+      </c>
+      <c r="V136" t="s">
         <v>39</v>
       </c>
+      <c r="W136">
+        <v>5</v>
+      </c>
       <c r="X136">
-        <v>5</v>
-      </c>
-      <c r="Y136">
-        <f t="shared" si="2"/>
-        <v>8.34</v>
-      </c>
-    </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U136/W136</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="137" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A137" t="s">
-        <v>446</v>
+        <v>475</v>
       </c>
       <c r="B137" t="s">
-        <v>550</v>
+        <v>520</v>
       </c>
       <c r="C137" t="s">
         <v>284</v>
@@ -12674,24 +12672,24 @@
         <f>R137/Q137</f>
         <v>1.54E-4</v>
       </c>
+      <c r="T137">
+        <v>98.2</v>
+      </c>
       <c r="U137">
-        <v>19.3</v>
-      </c>
-      <c r="V137">
-        <v>0.1</v>
-      </c>
-      <c r="W137" t="s">
+        <v>2.66</v>
+      </c>
+      <c r="V137" t="s">
         <v>39</v>
       </c>
+      <c r="W137">
+        <v>5</v>
+      </c>
       <c r="X137">
-        <v>5</v>
-      </c>
-      <c r="Y137">
-        <f t="shared" si="2"/>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U137/W137</f>
+        <v>0.53200000000000003</v>
+      </c>
+    </row>
+    <row r="138" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A138" t="s">
         <v>285</v>
       </c>
@@ -12751,24 +12749,24 @@
         <f>R138/Q138</f>
         <v>3.0600000000000002E-2</v>
       </c>
+      <c r="T138">
+        <v>75</v>
+      </c>
       <c r="U138">
-        <v>98.2</v>
-      </c>
-      <c r="V138">
-        <v>2.66</v>
-      </c>
-      <c r="W138" t="s">
-        <v>39</v>
+        <v>1000</v>
+      </c>
+      <c r="V138" t="s">
+        <v>3</v>
+      </c>
+      <c r="W138">
+        <v>10</v>
       </c>
       <c r="X138">
-        <v>5</v>
-      </c>
-      <c r="Y138">
-        <f t="shared" si="2"/>
-        <v>0.53200000000000003</v>
-      </c>
-    </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U138/W138</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="139" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A139" t="s">
         <v>287</v>
       </c>
@@ -12828,29 +12826,29 @@
         <f>R139/Q139</f>
         <v>1.2999999999999999E-3</v>
       </c>
+      <c r="T139">
+        <v>73</v>
+      </c>
       <c r="U139">
-        <v>75</v>
-      </c>
-      <c r="V139">
-        <v>1000</v>
-      </c>
-      <c r="W139" t="s">
-        <v>3</v>
+        <v>0.125</v>
+      </c>
+      <c r="V139" t="s">
+        <v>39</v>
+      </c>
+      <c r="W139">
+        <v>5</v>
       </c>
       <c r="X139">
-        <v>10</v>
-      </c>
-      <c r="Y139">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U139/W139</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A140" t="s">
-        <v>447</v>
+        <v>401</v>
       </c>
       <c r="B140" t="s">
-        <v>447</v>
+        <v>521</v>
       </c>
       <c r="C140" t="s">
         <v>289</v>
@@ -12905,24 +12903,24 @@
         <f>R140/Q140</f>
         <v>5.9999999999999995E-4</v>
       </c>
+      <c r="T140">
+        <v>89.7</v>
+      </c>
       <c r="U140">
-        <v>73</v>
-      </c>
-      <c r="V140">
-        <v>0.125</v>
-      </c>
-      <c r="W140" t="s">
-        <v>39</v>
+        <v>331.5</v>
+      </c>
+      <c r="V140" t="s">
+        <v>3</v>
+      </c>
+      <c r="W140">
+        <v>10</v>
       </c>
       <c r="X140">
-        <v>5</v>
-      </c>
-      <c r="Y140">
-        <f t="shared" si="2"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U140/W140</f>
+        <v>33.15</v>
+      </c>
+    </row>
+    <row r="141" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A141" t="s">
         <v>290</v>
       </c>
@@ -12981,24 +12979,24 @@
       <c r="S141">
         <v>5.0000000000000001E-3</v>
       </c>
+      <c r="T141">
+        <v>37.799999999999997</v>
+      </c>
       <c r="U141">
-        <v>89.7</v>
-      </c>
-      <c r="V141">
-        <v>331.5</v>
-      </c>
-      <c r="W141" t="s">
-        <v>3</v>
+        <v>3.3</v>
+      </c>
+      <c r="V141" t="s">
+        <v>39</v>
+      </c>
+      <c r="W141">
+        <v>5</v>
       </c>
       <c r="X141">
-        <v>10</v>
-      </c>
-      <c r="Y141">
-        <f t="shared" si="2"/>
-        <v>33.15</v>
-      </c>
-    </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U141/W141</f>
+        <v>0.65999999999999992</v>
+      </c>
+    </row>
+    <row r="142" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A142" t="s">
         <v>293</v>
       </c>
@@ -13058,29 +13056,29 @@
         <f>R142/Q142</f>
         <v>3.0000000000000003E-4</v>
       </c>
+      <c r="T142">
+        <v>100.6</v>
+      </c>
       <c r="U142">
-        <v>37.799999999999997</v>
-      </c>
-      <c r="V142">
-        <v>3.3</v>
-      </c>
-      <c r="W142" t="s">
+        <v>33.450000000000003</v>
+      </c>
+      <c r="V142" t="s">
         <v>39</v>
       </c>
+      <c r="W142">
+        <v>5</v>
+      </c>
       <c r="X142">
-        <v>5</v>
-      </c>
-      <c r="Y142">
-        <f t="shared" si="2"/>
-        <v>0.65999999999999992</v>
-      </c>
-    </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U142/W142</f>
+        <v>6.69</v>
+      </c>
+    </row>
+    <row r="143" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A143" t="s">
-        <v>448</v>
+        <v>402</v>
       </c>
       <c r="B143" t="s">
-        <v>448</v>
+        <v>522</v>
       </c>
       <c r="C143" t="s">
         <v>295</v>
@@ -13135,24 +13133,24 @@
         <f>R143/Q143</f>
         <v>2.0000000000000002E-5</v>
       </c>
+      <c r="T143">
+        <v>5.9</v>
+      </c>
       <c r="U143">
-        <v>100.6</v>
-      </c>
-      <c r="V143">
-        <v>33.450000000000003</v>
-      </c>
-      <c r="W143" t="s">
+        <v>115.5</v>
+      </c>
+      <c r="V143" t="s">
         <v>39</v>
       </c>
+      <c r="W143">
+        <v>5</v>
+      </c>
       <c r="X143">
-        <v>5</v>
-      </c>
-      <c r="Y143">
-        <f t="shared" si="2"/>
-        <v>6.69</v>
-      </c>
-    </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U143/W143</f>
+        <v>23.1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A144" t="s">
         <v>296</v>
       </c>
@@ -13211,24 +13209,24 @@
       <c r="S144">
         <v>2.0000000000000002E-7</v>
       </c>
+      <c r="T144">
+        <v>42</v>
+      </c>
       <c r="U144">
-        <v>5.9</v>
-      </c>
-      <c r="V144">
-        <v>115.5</v>
-      </c>
-      <c r="W144" t="s">
-        <v>39</v>
+        <v>1440</v>
+      </c>
+      <c r="V144" t="s">
+        <v>3</v>
+      </c>
+      <c r="W144">
+        <v>10</v>
       </c>
       <c r="X144">
-        <v>5</v>
-      </c>
-      <c r="Y144">
-        <f t="shared" si="2"/>
-        <v>23.1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U144/W144</f>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="145" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A145" t="s">
         <v>298</v>
       </c>
@@ -13288,29 +13286,29 @@
         <f>R145/Q145</f>
         <v>1.56E-5</v>
       </c>
+      <c r="T145">
+        <v>9.6</v>
+      </c>
       <c r="U145">
-        <v>42</v>
-      </c>
-      <c r="V145">
-        <v>1440</v>
-      </c>
-      <c r="W145" t="s">
-        <v>3</v>
+        <v>0.81</v>
+      </c>
+      <c r="V145" t="s">
+        <v>39</v>
+      </c>
+      <c r="W145">
+        <v>5</v>
       </c>
       <c r="X145">
-        <v>10</v>
-      </c>
-      <c r="Y145">
-        <f t="shared" si="2"/>
-        <v>144</v>
-      </c>
-    </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U145/W145</f>
+        <v>0.16200000000000001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A146" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B146" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C146" t="s">
         <v>300</v>
@@ -13363,24 +13361,23 @@
       <c r="S146" t="s">
         <v>42</v>
       </c>
-      <c r="U146">
-        <v>9.6</v>
-      </c>
-      <c r="V146">
-        <v>0.81</v>
+      <c r="T146" t="s">
+        <v>42</v>
+      </c>
+      <c r="U146" t="s">
+        <v>42</v>
+      </c>
+      <c r="V146" t="s">
+        <v>42</v>
       </c>
       <c r="W146" t="s">
-        <v>39</v>
-      </c>
-      <c r="X146">
-        <v>5</v>
-      </c>
-      <c r="Y146">
-        <f t="shared" si="2"/>
-        <v>0.16200000000000001</v>
-      </c>
-    </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.75">
+        <v>42</v>
+      </c>
+      <c r="X146" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="147" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A147" t="s">
         <v>301</v>
       </c>
@@ -13440,28 +13437,29 @@
         <f>R147/Q147</f>
         <v>8.0999999999999997E-7</v>
       </c>
-      <c r="U147" t="s">
-        <v>42</v>
+      <c r="T147" t="s">
+        <v>37</v>
+      </c>
+      <c r="U147">
+        <v>40.4</v>
       </c>
       <c r="V147" t="s">
-        <v>42</v>
-      </c>
-      <c r="W147" t="s">
-        <v>42</v>
-      </c>
-      <c r="X147" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y147" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.75">
+        <v>3</v>
+      </c>
+      <c r="W147">
+        <v>10</v>
+      </c>
+      <c r="X147">
+        <f>U147/W147</f>
+        <v>4.04</v>
+      </c>
+    </row>
+    <row r="148" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A148" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B148" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C148" t="s">
         <v>303</v>
@@ -13516,24 +13514,23 @@
         <f>R148/Q148</f>
         <v>2.3999999999999998E-4</v>
       </c>
+      <c r="T148" t="s">
+        <v>37</v>
+      </c>
       <c r="U148" t="s">
         <v>37</v>
       </c>
-      <c r="V148">
-        <v>40.4</v>
+      <c r="V148" t="s">
+        <v>37</v>
       </c>
       <c r="W148" t="s">
-        <v>3</v>
-      </c>
-      <c r="X148">
-        <v>10</v>
-      </c>
-      <c r="Y148">
-        <f t="shared" si="2"/>
-        <v>4.04</v>
-      </c>
-    </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.75">
+        <v>37</v>
+      </c>
+      <c r="X148" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="149" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A149" t="s">
         <v>306</v>
       </c>
@@ -13593,28 +13590,29 @@
         <f>R149/Q149</f>
         <v>8.9999999999999992E-5</v>
       </c>
-      <c r="U149" t="s">
-        <v>37</v>
+      <c r="T149">
+        <v>9</v>
+      </c>
+      <c r="U149">
+        <v>5.46</v>
       </c>
       <c r="V149" t="s">
-        <v>37</v>
-      </c>
-      <c r="W149" t="s">
-        <v>37</v>
-      </c>
-      <c r="X149" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y149" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.75">
+        <v>39</v>
+      </c>
+      <c r="W149">
+        <v>5</v>
+      </c>
+      <c r="X149">
+        <f>U149/W149</f>
+        <v>1.0920000000000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A150" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B150" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C150" t="s">
         <v>308</v>
@@ -13667,29 +13665,28 @@
       <c r="S150" t="s">
         <v>37</v>
       </c>
-      <c r="U150">
-        <v>9</v>
-      </c>
-      <c r="V150">
-        <v>5.46</v>
+      <c r="T150" t="s">
+        <v>42</v>
+      </c>
+      <c r="U150" t="s">
+        <v>42</v>
+      </c>
+      <c r="V150" t="s">
+        <v>42</v>
       </c>
       <c r="W150" t="s">
-        <v>39</v>
-      </c>
-      <c r="X150">
-        <v>5</v>
-      </c>
-      <c r="Y150">
-        <f t="shared" si="2"/>
-        <v>1.0920000000000001</v>
-      </c>
-    </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.75">
+        <v>42</v>
+      </c>
+      <c r="X150" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="151" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A151" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B151" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C151" t="s">
         <v>309</v>
@@ -13744,28 +13741,28 @@
         <f>R151/Q151</f>
         <v>1.6000000000000001E-6</v>
       </c>
+      <c r="T151">
+        <v>39</v>
+      </c>
       <c r="U151" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="V151" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="W151" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="X151" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y151" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.75">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="152" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A152" t="s">
-        <v>453</v>
+        <v>422</v>
       </c>
       <c r="B152" t="s">
-        <v>497</v>
+        <v>527</v>
       </c>
       <c r="C152" t="s">
         <v>310</v>
@@ -13818,28 +13815,28 @@
       <c r="S152" t="s">
         <v>42</v>
       </c>
-      <c r="U152">
-        <v>39</v>
+      <c r="T152" t="s">
+        <v>42</v>
+      </c>
+      <c r="U152" t="s">
+        <v>42</v>
       </c>
       <c r="V152" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="W152" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="X152" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y152" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.75">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="153" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A153" t="s">
-        <v>454</v>
+        <v>475</v>
       </c>
       <c r="B153" t="s">
-        <v>550</v>
+        <v>528</v>
       </c>
       <c r="D153" t="s">
         <v>47</v>
@@ -13889,6 +13886,9 @@
       <c r="S153" t="s">
         <v>42</v>
       </c>
+      <c r="T153" t="s">
+        <v>42</v>
+      </c>
       <c r="U153" t="s">
         <v>42</v>
       </c>
@@ -13901,13 +13901,10 @@
       <c r="X153" t="s">
         <v>42</v>
       </c>
-      <c r="Y153" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.75">
+    </row>
+    <row r="154" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A154" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B154" t="s">
         <v>529</v>
@@ -13963,6 +13960,9 @@
       <c r="S154" t="s">
         <v>42</v>
       </c>
+      <c r="T154" t="s">
+        <v>42</v>
+      </c>
       <c r="U154" t="s">
         <v>42</v>
       </c>
@@ -13975,11 +13975,8 @@
       <c r="X154" t="s">
         <v>42</v>
       </c>
-      <c r="Y154" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.75">
+    </row>
+    <row r="155" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A155" t="s">
         <v>312</v>
       </c>
@@ -14039,25 +14036,26 @@
         <f>R155/Q155</f>
         <v>1E-3</v>
       </c>
-      <c r="U155" t="s">
-        <v>42</v>
+      <c r="T155">
+        <v>68.8</v>
+      </c>
+      <c r="U155">
+        <v>4.2</v>
       </c>
       <c r="V155" t="s">
-        <v>42</v>
-      </c>
-      <c r="W155" t="s">
-        <v>42</v>
-      </c>
-      <c r="X155" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y155" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.75">
+        <v>39</v>
+      </c>
+      <c r="W155">
+        <v>5</v>
+      </c>
+      <c r="X155">
+        <f>U155/W155</f>
+        <v>0.84000000000000008</v>
+      </c>
+    </row>
+    <row r="156" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A156" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B156" t="s">
         <v>530</v>
@@ -14113,26 +14111,26 @@
       <c r="S156" t="s">
         <v>42</v>
       </c>
+      <c r="T156">
+        <v>273</v>
+      </c>
       <c r="U156">
-        <v>68.8</v>
-      </c>
-      <c r="V156">
-        <v>4.2</v>
-      </c>
-      <c r="W156" t="s">
+        <v>1.25</v>
+      </c>
+      <c r="V156" t="s">
         <v>39</v>
       </c>
+      <c r="W156">
+        <v>5</v>
+      </c>
       <c r="X156">
-        <v>5</v>
-      </c>
-      <c r="Y156">
-        <f t="shared" si="2"/>
-        <v>0.84000000000000008</v>
-      </c>
-    </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U156/W156</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="157" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A157" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B157" t="s">
         <v>531</v>
@@ -14189,24 +14187,24 @@
         <f>R157/Q157</f>
         <v>2E-3</v>
       </c>
+      <c r="T157">
+        <v>13.5</v>
+      </c>
       <c r="U157">
-        <v>273</v>
-      </c>
-      <c r="V157">
-        <v>1.25</v>
-      </c>
-      <c r="W157" t="s">
-        <v>39</v>
+        <v>500</v>
+      </c>
+      <c r="V157" t="s">
+        <v>3</v>
+      </c>
+      <c r="W157">
+        <v>10</v>
       </c>
       <c r="X157">
-        <v>5</v>
-      </c>
-      <c r="Y157">
-        <f t="shared" si="2"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U157/W157</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="158" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A158" t="s">
         <v>316</v>
       </c>
@@ -14265,26 +14263,26 @@
       <c r="S158" s="14">
         <v>8.0000000000000002E-3</v>
       </c>
+      <c r="T158" t="s">
+        <v>37</v>
+      </c>
       <c r="U158">
-        <v>13.5</v>
-      </c>
-      <c r="V158">
-        <v>500</v>
-      </c>
-      <c r="W158" t="s">
+        <v>153</v>
+      </c>
+      <c r="V158" t="s">
         <v>3</v>
       </c>
+      <c r="W158">
+        <v>10</v>
+      </c>
       <c r="X158">
-        <v>10</v>
-      </c>
-      <c r="Y158">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U158/W158</f>
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A159" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B159" t="s">
         <v>532</v>
@@ -14342,24 +14340,24 @@
         <f>R159/Q159</f>
         <v>0.63</v>
       </c>
-      <c r="U159" t="s">
-        <v>37</v>
-      </c>
-      <c r="V159">
-        <v>153</v>
-      </c>
-      <c r="W159" t="s">
-        <v>3</v>
+      <c r="T159">
+        <v>20</v>
+      </c>
+      <c r="U159">
+        <v>362</v>
+      </c>
+      <c r="V159" t="s">
+        <v>39</v>
+      </c>
+      <c r="W159">
+        <v>5</v>
       </c>
       <c r="X159">
-        <v>10</v>
-      </c>
-      <c r="Y159">
-        <f t="shared" si="2"/>
-        <v>15.3</v>
-      </c>
-    </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U159/W159</f>
+        <v>72.400000000000006</v>
+      </c>
+    </row>
+    <row r="160" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A160" t="s">
         <v>319</v>
       </c>
@@ -14419,24 +14417,24 @@
         <f>R160/Q160</f>
         <v>1.9E-3</v>
       </c>
+      <c r="T160">
+        <v>85</v>
+      </c>
       <c r="U160">
-        <v>20</v>
-      </c>
-      <c r="V160">
-        <v>362</v>
-      </c>
-      <c r="W160" t="s">
+        <v>1.95</v>
+      </c>
+      <c r="V160" t="s">
         <v>39</v>
       </c>
+      <c r="W160">
+        <v>5</v>
+      </c>
       <c r="X160">
-        <v>5</v>
-      </c>
-      <c r="Y160">
-        <f t="shared" si="2"/>
-        <v>72.400000000000006</v>
-      </c>
-    </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U160/W160</f>
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="161" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A161" t="s">
         <v>322</v>
       </c>
@@ -14495,24 +14493,24 @@
       <c r="S161">
         <v>6.8000000000000005E-3</v>
       </c>
+      <c r="T161">
+        <v>35.200000000000003</v>
+      </c>
       <c r="U161">
-        <v>85</v>
-      </c>
-      <c r="V161">
-        <v>1.95</v>
-      </c>
-      <c r="W161" t="s">
+        <v>6.47</v>
+      </c>
+      <c r="V161" t="s">
         <v>39</v>
       </c>
+      <c r="W161">
+        <v>5</v>
+      </c>
       <c r="X161">
-        <v>5</v>
-      </c>
-      <c r="Y161">
-        <f t="shared" si="2"/>
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U161/W161</f>
+        <v>1.294</v>
+      </c>
+    </row>
+    <row r="162" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A162" t="s">
         <v>324</v>
       </c>
@@ -14572,24 +14570,23 @@
         <f>R162/Q162</f>
         <v>1.6000000000000001E-4</v>
       </c>
-      <c r="U162">
-        <v>35.200000000000003</v>
-      </c>
-      <c r="V162">
-        <v>6.47</v>
+      <c r="T162">
+        <v>28</v>
+      </c>
+      <c r="U162" t="s">
+        <v>37</v>
+      </c>
+      <c r="V162" t="s">
+        <v>37</v>
       </c>
       <c r="W162" t="s">
-        <v>39</v>
-      </c>
-      <c r="X162">
-        <v>5</v>
-      </c>
-      <c r="Y162">
-        <f t="shared" si="2"/>
-        <v>1.294</v>
-      </c>
-    </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.75">
+        <v>37</v>
+      </c>
+      <c r="X162" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="163" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A163" t="s">
         <v>326</v>
       </c>
@@ -14649,23 +14646,24 @@
         <f>R163/Q163</f>
         <v>3.4000000000000002E-3</v>
       </c>
+      <c r="T163">
+        <v>233</v>
+      </c>
       <c r="U163">
-        <v>28</v>
+        <v>1.4</v>
       </c>
       <c r="V163" t="s">
-        <v>37</v>
-      </c>
-      <c r="W163" t="s">
-        <v>37</v>
-      </c>
-      <c r="X163" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y163" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.75">
+        <v>39</v>
+      </c>
+      <c r="W163">
+        <v>5</v>
+      </c>
+      <c r="X163">
+        <f>U163/W163</f>
+        <v>0.27999999999999997</v>
+      </c>
+    </row>
+    <row r="164" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A164" t="s">
         <v>328</v>
       </c>
@@ -14725,29 +14723,29 @@
         <f>R164/Q164</f>
         <v>4.4999999999999999E-4</v>
       </c>
+      <c r="T164">
+        <v>9.8000000000000007</v>
+      </c>
       <c r="U164">
-        <v>233</v>
-      </c>
-      <c r="V164">
-        <v>1.4</v>
-      </c>
-      <c r="W164" t="s">
-        <v>39</v>
+        <v>71.8</v>
+      </c>
+      <c r="V164" t="s">
+        <v>3</v>
+      </c>
+      <c r="W164">
+        <v>10</v>
       </c>
       <c r="X164">
-        <v>5</v>
-      </c>
-      <c r="Y164">
-        <f t="shared" si="2"/>
-        <v>0.27999999999999997</v>
-      </c>
-    </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U164/W164</f>
+        <v>7.18</v>
+      </c>
+    </row>
+    <row r="165" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A165" t="s">
+        <v>475</v>
+      </c>
+      <c r="B165" t="s">
         <v>330</v>
-      </c>
-      <c r="B165" t="s">
-        <v>550</v>
       </c>
       <c r="C165" t="s">
         <v>331</v>
@@ -14801,26 +14799,26 @@
       <c r="S165">
         <v>3.0800000000000001E-2</v>
       </c>
+      <c r="T165">
+        <v>0.77</v>
+      </c>
       <c r="U165">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="V165">
-        <v>71.8</v>
-      </c>
-      <c r="W165" t="s">
-        <v>3</v>
+        <v>5.3</v>
+      </c>
+      <c r="V165" t="s">
+        <v>39</v>
+      </c>
+      <c r="W165">
+        <v>5</v>
       </c>
       <c r="X165">
-        <v>10</v>
-      </c>
-      <c r="Y165">
-        <f t="shared" si="2"/>
-        <v>7.18</v>
-      </c>
-    </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U165/W165</f>
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="166" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A166" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B166" t="s">
         <v>533</v>
@@ -14877,24 +14875,24 @@
       <c r="S166">
         <v>3.4000000000000002E-4</v>
       </c>
+      <c r="T166">
+        <v>131</v>
+      </c>
       <c r="U166">
-        <v>0.77</v>
-      </c>
-      <c r="V166">
-        <v>5.3</v>
-      </c>
-      <c r="W166" t="s">
+        <v>62.5</v>
+      </c>
+      <c r="V166" t="s">
         <v>39</v>
       </c>
+      <c r="W166">
+        <v>5</v>
+      </c>
       <c r="X166">
-        <v>5</v>
-      </c>
-      <c r="Y166">
-        <f t="shared" si="2"/>
-        <v>1.06</v>
-      </c>
-    </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U166/W166</f>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A167" t="s">
         <v>333</v>
       </c>
@@ -14954,24 +14952,24 @@
         <f>R167/Q167</f>
         <v>2.5000000000000001E-4</v>
       </c>
+      <c r="T167">
+        <v>22.6</v>
+      </c>
       <c r="U167">
-        <v>131</v>
-      </c>
-      <c r="V167">
-        <v>62.5</v>
-      </c>
-      <c r="W167" t="s">
+        <v>1.3859999999999999</v>
+      </c>
+      <c r="V167" t="s">
         <v>39</v>
       </c>
+      <c r="W167">
+        <v>5</v>
+      </c>
       <c r="X167">
-        <v>5</v>
-      </c>
-      <c r="Y167">
-        <f t="shared" si="2"/>
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U167/W167</f>
+        <v>0.2772</v>
+      </c>
+    </row>
+    <row r="168" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A168" t="s">
         <v>335</v>
       </c>
@@ -15031,26 +15029,26 @@
         <f>R168/Q168</f>
         <v>8.0000000000000007E-5</v>
       </c>
+      <c r="T168">
+        <v>33.299999999999997</v>
+      </c>
       <c r="U168">
-        <v>22.6</v>
-      </c>
-      <c r="V168">
-        <v>1.3859999999999999</v>
-      </c>
-      <c r="W168" t="s">
+        <v>23.1</v>
+      </c>
+      <c r="V168" t="s">
         <v>39</v>
       </c>
+      <c r="W168">
+        <v>5</v>
+      </c>
       <c r="X168">
-        <v>5</v>
-      </c>
-      <c r="Y168">
-        <f t="shared" si="2"/>
-        <v>0.2772</v>
-      </c>
-    </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U168/W168</f>
+        <v>4.62</v>
+      </c>
+    </row>
+    <row r="169" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A169" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B169" t="s">
         <v>534</v>
@@ -15108,26 +15106,26 @@
         <f>R169/Q169</f>
         <v>2.3E-6</v>
       </c>
+      <c r="T169">
+        <v>1.2</v>
+      </c>
       <c r="U169">
-        <v>33.299999999999997</v>
-      </c>
-      <c r="V169">
-        <v>23.1</v>
-      </c>
-      <c r="W169" t="s">
+        <v>250</v>
+      </c>
+      <c r="V169" t="s">
         <v>39</v>
       </c>
+      <c r="W169">
+        <v>5</v>
+      </c>
       <c r="X169">
-        <v>5</v>
-      </c>
-      <c r="Y169">
-        <f t="shared" si="2"/>
-        <v>4.62</v>
-      </c>
-    </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U169/W169</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="170" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A170" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B170" t="s">
         <v>535</v>
@@ -15185,26 +15183,26 @@
         <f>R170/Q170</f>
         <v>1.3999999999999999E-6</v>
       </c>
+      <c r="T170">
+        <v>12</v>
+      </c>
       <c r="U170">
-        <v>1.2</v>
-      </c>
-      <c r="V170">
-        <v>250</v>
-      </c>
-      <c r="W170" t="s">
+        <v>0.25</v>
+      </c>
+      <c r="V170" t="s">
         <v>39</v>
       </c>
+      <c r="W170">
+        <v>5</v>
+      </c>
       <c r="X170">
-        <v>5</v>
-      </c>
-      <c r="Y170">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U170/W170</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="171" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A171" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B171" t="s">
         <v>536</v>
@@ -15262,24 +15260,24 @@
         <f>R171/Q171</f>
         <v>1.3999999999999999E-6</v>
       </c>
+      <c r="T171">
+        <v>12</v>
+      </c>
       <c r="U171">
-        <v>12</v>
-      </c>
-      <c r="V171">
         <v>0.25</v>
       </c>
-      <c r="W171" t="s">
+      <c r="V171" t="s">
         <v>39</v>
       </c>
+      <c r="W171">
+        <v>5</v>
+      </c>
       <c r="X171">
-        <v>5</v>
-      </c>
-      <c r="Y171">
-        <f t="shared" si="2"/>
+        <f>U171/W171</f>
         <v>0.05</v>
       </c>
     </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="172" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A172" t="s">
         <v>340</v>
       </c>
@@ -15338,29 +15336,29 @@
       <c r="S172">
         <v>9.3999999999999986E-3</v>
       </c>
+      <c r="T172">
+        <v>31.4</v>
+      </c>
       <c r="U172">
-        <v>12</v>
-      </c>
-      <c r="V172">
-        <v>0.25</v>
-      </c>
-      <c r="W172" t="s">
+        <v>4.12</v>
+      </c>
+      <c r="V172" t="s">
         <v>39</v>
       </c>
+      <c r="W172">
+        <v>5</v>
+      </c>
       <c r="X172">
-        <v>5</v>
-      </c>
-      <c r="Y172">
-        <f t="shared" si="2"/>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U172/W172</f>
+        <v>0.82400000000000007</v>
+      </c>
+    </row>
+    <row r="173" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A173" t="s">
+        <v>475</v>
+      </c>
+      <c r="B173" t="s">
         <v>400</v>
-      </c>
-      <c r="B173" t="s">
-        <v>550</v>
       </c>
       <c r="C173" t="s">
         <v>342</v>
@@ -15413,24 +15411,23 @@
       <c r="S173" t="s">
         <v>42</v>
       </c>
-      <c r="U173">
-        <v>31.4</v>
-      </c>
-      <c r="V173">
-        <v>4.12</v>
+      <c r="T173" t="s">
+        <v>42</v>
+      </c>
+      <c r="U173" t="s">
+        <v>42</v>
+      </c>
+      <c r="V173" t="s">
+        <v>42</v>
       </c>
       <c r="W173" t="s">
-        <v>39</v>
-      </c>
-      <c r="X173">
-        <v>5</v>
-      </c>
-      <c r="Y173">
-        <f t="shared" si="2"/>
-        <v>0.82400000000000007</v>
-      </c>
-    </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.75">
+        <v>42</v>
+      </c>
+      <c r="X173" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="174" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A174" t="s">
         <v>343</v>
       </c>
@@ -15490,23 +15487,24 @@
         <f>R174/Q174</f>
         <v>1.7979999999999999E-3</v>
       </c>
-      <c r="U174" t="s">
-        <v>42</v>
+      <c r="T174">
+        <v>19</v>
+      </c>
+      <c r="U174">
+        <v>16</v>
       </c>
       <c r="V174" t="s">
-        <v>42</v>
-      </c>
-      <c r="W174" t="s">
-        <v>42</v>
-      </c>
-      <c r="X174" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y174" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.75">
+        <v>39</v>
+      </c>
+      <c r="W174">
+        <v>5</v>
+      </c>
+      <c r="X174">
+        <f>U174/W174</f>
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A175" t="s">
         <v>345</v>
       </c>
@@ -15566,24 +15564,24 @@
         <f>R175/Q175</f>
         <v>1.4999999999999999E-7</v>
       </c>
+      <c r="T175">
+        <v>4.2</v>
+      </c>
       <c r="U175">
-        <v>19</v>
-      </c>
-      <c r="V175">
-        <v>16</v>
-      </c>
-      <c r="W175" t="s">
-        <v>39</v>
+        <v>500</v>
+      </c>
+      <c r="V175" t="s">
+        <v>3</v>
+      </c>
+      <c r="W175">
+        <v>10</v>
       </c>
       <c r="X175">
-        <v>5</v>
-      </c>
-      <c r="Y175">
-        <f t="shared" si="2"/>
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U175/W175</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="176" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A176" t="s">
         <v>347</v>
       </c>
@@ -15643,24 +15641,24 @@
         <f>R176/Q176</f>
         <v>2.5999999999999998E-5</v>
       </c>
+      <c r="T176">
+        <v>13</v>
+      </c>
       <c r="U176">
-        <v>4.2</v>
-      </c>
-      <c r="V176">
-        <v>500</v>
-      </c>
-      <c r="W176" t="s">
-        <v>3</v>
+        <v>1.07</v>
+      </c>
+      <c r="V176" t="s">
+        <v>39</v>
+      </c>
+      <c r="W176">
+        <v>5</v>
       </c>
       <c r="X176">
-        <v>10</v>
-      </c>
-      <c r="Y176">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="177" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U176/W176</f>
+        <v>0.21400000000000002</v>
+      </c>
+    </row>
+    <row r="177" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A177" t="s">
         <v>349</v>
       </c>
@@ -15720,29 +15718,29 @@
         <f>R177/Q177</f>
         <v>1.4E-3</v>
       </c>
+      <c r="T177">
+        <v>169.3</v>
+      </c>
       <c r="U177">
-        <v>13</v>
-      </c>
-      <c r="V177">
-        <v>1.07</v>
-      </c>
-      <c r="W177" t="s">
+        <v>2.67</v>
+      </c>
+      <c r="V177" t="s">
         <v>39</v>
       </c>
+      <c r="W177">
+        <v>5</v>
+      </c>
       <c r="X177">
-        <v>5</v>
-      </c>
-      <c r="Y177">
-        <f t="shared" si="2"/>
-        <v>0.21400000000000002</v>
-      </c>
-    </row>
-    <row r="178" spans="1:25" x14ac:dyDescent="0.75">
-      <c r="A178" t="s">
-        <v>463</v>
-      </c>
-      <c r="B178" s="10" t="s">
-        <v>550</v>
+        <f>U177/W177</f>
+        <v>0.53400000000000003</v>
+      </c>
+    </row>
+    <row r="178" spans="1:24" x14ac:dyDescent="0.75">
+      <c r="A178" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="B178" t="s">
+        <v>537</v>
       </c>
       <c r="C178" t="s">
         <v>351</v>
@@ -15797,29 +15795,29 @@
         <f>R178/Q178</f>
         <v>2.3E-3</v>
       </c>
+      <c r="T178">
+        <v>1.8</v>
+      </c>
       <c r="U178">
-        <v>169.3</v>
-      </c>
-      <c r="V178">
-        <v>2.67</v>
-      </c>
-      <c r="W178" t="s">
+        <v>250</v>
+      </c>
+      <c r="V178" t="s">
         <v>39</v>
       </c>
+      <c r="W178">
+        <v>5</v>
+      </c>
       <c r="X178">
-        <v>5</v>
-      </c>
-      <c r="Y178">
-        <f t="shared" si="2"/>
-        <v>0.53400000000000003</v>
-      </c>
-    </row>
-    <row r="179" spans="1:25" x14ac:dyDescent="0.75">
-      <c r="A179" t="s">
+        <f>U178/W178</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="179" spans="1:24" x14ac:dyDescent="0.75">
+      <c r="A179" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="B179" t="s">
         <v>352</v>
-      </c>
-      <c r="B179" s="10" t="s">
-        <v>550</v>
       </c>
       <c r="C179" t="s">
         <v>353</v>
@@ -15874,24 +15872,24 @@
         <f>R179/Q179</f>
         <v>6.3E-2</v>
       </c>
+      <c r="T179">
+        <v>10.8</v>
+      </c>
       <c r="U179">
-        <v>1.8</v>
-      </c>
-      <c r="V179">
-        <v>250</v>
-      </c>
-      <c r="W179" t="s">
-        <v>39</v>
+        <v>1000</v>
+      </c>
+      <c r="V179" t="s">
+        <v>3</v>
+      </c>
+      <c r="W179">
+        <v>10</v>
       </c>
       <c r="X179">
-        <v>5</v>
-      </c>
-      <c r="Y179">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="180" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U179/W179</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="180" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A180" t="s">
         <v>354</v>
       </c>
@@ -15951,24 +15949,24 @@
         <f>R180/Q180</f>
         <v>3.3E-3</v>
       </c>
+      <c r="T180">
+        <v>100</v>
+      </c>
       <c r="U180">
-        <v>10.8</v>
-      </c>
-      <c r="V180">
-        <v>1000</v>
-      </c>
-      <c r="W180" t="s">
-        <v>3</v>
+        <v>1.4</v>
+      </c>
+      <c r="V180" t="s">
+        <v>39</v>
+      </c>
+      <c r="W180">
+        <v>5</v>
       </c>
       <c r="X180">
-        <v>10</v>
-      </c>
-      <c r="Y180">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="181" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U180/W180</f>
+        <v>0.27999999999999997</v>
+      </c>
+    </row>
+    <row r="181" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A181" t="s">
         <v>356</v>
       </c>
@@ -16028,29 +16026,29 @@
         <f>R181/Q181</f>
         <v>7.5000000000000002E-6</v>
       </c>
+      <c r="T181">
+        <v>2.8</v>
+      </c>
       <c r="U181">
-        <v>100</v>
-      </c>
-      <c r="V181">
-        <v>1.4</v>
-      </c>
-      <c r="W181" t="s">
+        <v>9.33</v>
+      </c>
+      <c r="V181" t="s">
         <v>39</v>
       </c>
+      <c r="W181">
+        <v>5</v>
+      </c>
       <c r="X181">
-        <v>5</v>
-      </c>
-      <c r="Y181">
-        <f t="shared" si="2"/>
-        <v>0.27999999999999997</v>
-      </c>
-    </row>
-    <row r="182" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U181/W181</f>
+        <v>1.8660000000000001</v>
+      </c>
+    </row>
+    <row r="182" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A182" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B182" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C182" t="s">
         <v>358</v>
@@ -16104,29 +16102,28 @@
       <c r="S182" t="s">
         <v>37</v>
       </c>
-      <c r="U182">
-        <v>2.8</v>
-      </c>
-      <c r="V182">
-        <v>9.33</v>
+      <c r="T182" t="s">
+        <v>37</v>
+      </c>
+      <c r="U182" t="s">
+        <v>37</v>
+      </c>
+      <c r="V182" t="s">
+        <v>37</v>
       </c>
       <c r="W182" t="s">
-        <v>39</v>
-      </c>
-      <c r="X182">
-        <v>5</v>
-      </c>
-      <c r="Y182">
-        <f t="shared" si="2"/>
-        <v>1.8660000000000001</v>
-      </c>
-    </row>
-    <row r="183" spans="1:25" x14ac:dyDescent="0.75">
+        <v>37</v>
+      </c>
+      <c r="X182" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="183" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A183" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B183" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C183" t="s">
         <v>359</v>
@@ -16180,6 +16177,9 @@
       <c r="S183" t="s">
         <v>37</v>
       </c>
+      <c r="T183" t="s">
+        <v>37</v>
+      </c>
       <c r="U183" t="s">
         <v>37</v>
       </c>
@@ -16192,11 +16192,8 @@
       <c r="X183" t="s">
         <v>37</v>
       </c>
-      <c r="Y183" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="184" spans="1:25" x14ac:dyDescent="0.75">
+    </row>
+    <row r="184" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A184" t="s">
         <v>360</v>
       </c>
@@ -16256,28 +16253,29 @@
         <f>R184/Q184</f>
         <v>1E-3</v>
       </c>
-      <c r="U184" t="s">
-        <v>37</v>
+      <c r="T184">
+        <v>0.7</v>
+      </c>
+      <c r="U184">
+        <v>100</v>
       </c>
       <c r="V184" t="s">
-        <v>37</v>
-      </c>
-      <c r="W184" t="s">
-        <v>37</v>
-      </c>
-      <c r="X184" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y184" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="185" spans="1:25" x14ac:dyDescent="0.75">
+        <v>39</v>
+      </c>
+      <c r="W184">
+        <v>5</v>
+      </c>
+      <c r="X184">
+        <f>U184/W184</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="185" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A185" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B185" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C185" t="s">
         <v>362</v>
@@ -16330,29 +16328,28 @@
       <c r="S185" t="s">
         <v>42</v>
       </c>
-      <c r="U185">
-        <v>0.7</v>
-      </c>
-      <c r="V185">
-        <v>100</v>
+      <c r="T185" t="s">
+        <v>42</v>
+      </c>
+      <c r="U185" t="s">
+        <v>42</v>
+      </c>
+      <c r="V185" t="s">
+        <v>42</v>
       </c>
       <c r="W185" t="s">
-        <v>39</v>
-      </c>
-      <c r="X185">
-        <v>5</v>
-      </c>
-      <c r="Y185">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="186" spans="1:25" x14ac:dyDescent="0.75">
+        <v>42</v>
+      </c>
+      <c r="X185" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="186" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A186" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B186" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C186" t="s">
         <v>363</v>
@@ -16405,6 +16402,9 @@
       <c r="S186" t="s">
         <v>42</v>
       </c>
+      <c r="T186" t="s">
+        <v>42</v>
+      </c>
       <c r="U186" t="s">
         <v>42</v>
       </c>
@@ -16417,16 +16417,13 @@
       <c r="X186" t="s">
         <v>42</v>
       </c>
-      <c r="Y186" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="187" spans="1:25" x14ac:dyDescent="0.75">
+    </row>
+    <row r="187" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A187" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B187" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C187" t="s">
         <v>364</v>
@@ -16479,28 +16476,29 @@
       <c r="S187" t="s">
         <v>42</v>
       </c>
-      <c r="U187" t="s">
-        <v>42</v>
+      <c r="T187">
+        <v>14.2</v>
+      </c>
+      <c r="U187">
+        <v>1000</v>
       </c>
       <c r="V187" t="s">
-        <v>42</v>
-      </c>
-      <c r="W187" t="s">
-        <v>42</v>
-      </c>
-      <c r="X187" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y187" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="188" spans="1:25" x14ac:dyDescent="0.75">
+        <v>3</v>
+      </c>
+      <c r="W187">
+        <v>10</v>
+      </c>
+      <c r="X187">
+        <f>U187/W187</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="188" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A188" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B188" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C188" t="s">
         <v>365</v>
@@ -16553,24 +16551,23 @@
       <c r="S188" t="s">
         <v>42</v>
       </c>
-      <c r="U188">
-        <v>14.2</v>
-      </c>
-      <c r="V188">
-        <v>1000</v>
+      <c r="T188" t="s">
+        <v>42</v>
+      </c>
+      <c r="U188" t="s">
+        <v>42</v>
+      </c>
+      <c r="V188" t="s">
+        <v>42</v>
       </c>
       <c r="W188" t="s">
-        <v>3</v>
-      </c>
-      <c r="X188">
-        <v>10</v>
-      </c>
-      <c r="Y188">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="189" spans="1:25" x14ac:dyDescent="0.75">
+        <v>42</v>
+      </c>
+      <c r="X188" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="189" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A189" t="s">
         <v>366</v>
       </c>
@@ -16630,28 +16627,29 @@
         <f>R189/Q189</f>
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="U189" t="s">
-        <v>42</v>
+      <c r="T189">
+        <v>52.4</v>
+      </c>
+      <c r="U189">
+        <v>5</v>
       </c>
       <c r="V189" t="s">
-        <v>42</v>
-      </c>
-      <c r="W189" t="s">
-        <v>42</v>
-      </c>
-      <c r="X189" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y189" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="190" spans="1:25" x14ac:dyDescent="0.75">
+        <v>39</v>
+      </c>
+      <c r="W189">
+        <v>5</v>
+      </c>
+      <c r="X189">
+        <f>U189/W189</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A190" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B190" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C190" t="s">
         <v>368</v>
@@ -16706,24 +16704,24 @@
         <f>R190/Q190</f>
         <v>4.2E-7</v>
       </c>
+      <c r="T190">
+        <v>3.5</v>
+      </c>
       <c r="U190">
-        <v>52.4</v>
-      </c>
-      <c r="V190">
+        <v>1.44</v>
+      </c>
+      <c r="V190" t="s">
+        <v>39</v>
+      </c>
+      <c r="W190">
         <v>5</v>
       </c>
-      <c r="W190" t="s">
-        <v>39</v>
-      </c>
       <c r="X190">
-        <v>5</v>
-      </c>
-      <c r="Y190">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U190/W190</f>
+        <v>0.28799999999999998</v>
+      </c>
+    </row>
+    <row r="191" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A191" t="s">
         <v>369</v>
       </c>
@@ -16782,24 +16780,24 @@
       <c r="S191">
         <v>1E-3</v>
       </c>
+      <c r="T191">
+        <v>47.1</v>
+      </c>
       <c r="U191">
-        <v>3.5</v>
-      </c>
-      <c r="V191">
-        <v>1.44</v>
-      </c>
-      <c r="W191" t="s">
+        <v>10</v>
+      </c>
+      <c r="V191" t="s">
         <v>39</v>
       </c>
+      <c r="W191">
+        <v>5</v>
+      </c>
       <c r="X191">
-        <v>5</v>
-      </c>
-      <c r="Y191">
-        <f t="shared" si="2"/>
-        <v>0.28799999999999998</v>
-      </c>
-    </row>
-    <row r="192" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U191/W191</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A192" t="s">
         <v>371</v>
       </c>
@@ -16858,29 +16856,29 @@
       <c r="S192">
         <v>1.2E-4</v>
       </c>
+      <c r="T192">
+        <v>21.8</v>
+      </c>
       <c r="U192">
-        <v>47.1</v>
-      </c>
-      <c r="V192">
+        <v>141.69999999999999</v>
+      </c>
+      <c r="V192" t="s">
+        <v>3</v>
+      </c>
+      <c r="W192">
         <v>10</v>
       </c>
-      <c r="W192" t="s">
-        <v>39</v>
-      </c>
       <c r="X192">
-        <v>5</v>
-      </c>
-      <c r="Y192">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="193" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U192/W192</f>
+        <v>14.169999999999998</v>
+      </c>
+    </row>
+    <row r="193" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A193" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B193" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C193" t="s">
         <v>373</v>
@@ -16934,24 +16932,24 @@
       <c r="S193">
         <v>1.4000000000000001E-4</v>
       </c>
+      <c r="T193">
+        <v>28.6</v>
+      </c>
       <c r="U193">
-        <v>21.8</v>
-      </c>
-      <c r="V193">
-        <v>141.69999999999999</v>
-      </c>
-      <c r="W193" t="s">
+        <v>120</v>
+      </c>
+      <c r="V193" t="s">
         <v>3</v>
       </c>
+      <c r="W193">
+        <v>10</v>
+      </c>
       <c r="X193">
-        <v>10</v>
-      </c>
-      <c r="Y193">
-        <f t="shared" si="2"/>
-        <v>14.169999999999998</v>
-      </c>
-    </row>
-    <row r="194" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U193/W193</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="194" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A194" t="s">
         <v>374</v>
       </c>
@@ -17011,24 +17009,24 @@
         <f>R194/Q194</f>
         <v>1.5999999999999999E-5</v>
       </c>
+      <c r="T194">
+        <v>52</v>
+      </c>
       <c r="U194">
-        <v>28.6</v>
-      </c>
-      <c r="V194">
-        <v>120</v>
-      </c>
-      <c r="W194" t="s">
+        <v>170</v>
+      </c>
+      <c r="V194" t="s">
         <v>3</v>
       </c>
+      <c r="W194">
+        <v>10</v>
+      </c>
       <c r="X194">
-        <v>10</v>
-      </c>
-      <c r="Y194">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="195" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U194/W194</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="195" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A195" t="s">
         <v>376</v>
       </c>
@@ -17088,24 +17086,24 @@
         <f>R195/Q195</f>
         <v>1.9E-3</v>
       </c>
+      <c r="T195">
+        <v>430</v>
+      </c>
       <c r="U195">
-        <v>52</v>
-      </c>
-      <c r="V195">
-        <v>170</v>
-      </c>
-      <c r="W195" t="s">
-        <v>3</v>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="V195" t="s">
+        <v>39</v>
+      </c>
+      <c r="W195">
+        <v>5</v>
       </c>
       <c r="X195">
-        <v>10</v>
-      </c>
-      <c r="Y195">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="196" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U195/W195</f>
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="196" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A196" t="s">
         <v>378</v>
       </c>
@@ -17165,24 +17163,23 @@
         <f>R196/Q196</f>
         <v>1.5999999999999999E-5</v>
       </c>
-      <c r="U196">
-        <v>430</v>
-      </c>
-      <c r="V196">
-        <v>8.1999999999999993</v>
+      <c r="T196" t="s">
+        <v>37</v>
+      </c>
+      <c r="U196" t="s">
+        <v>37</v>
+      </c>
+      <c r="V196" t="s">
+        <v>37</v>
       </c>
       <c r="W196" t="s">
-        <v>39</v>
-      </c>
-      <c r="X196">
-        <v>5</v>
-      </c>
-      <c r="Y196">
-        <f t="shared" si="2"/>
-        <v>1.64</v>
-      </c>
-    </row>
-    <row r="197" spans="1:25" x14ac:dyDescent="0.75">
+        <v>37</v>
+      </c>
+      <c r="X196" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="197" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A197" t="s">
         <v>380</v>
       </c>
@@ -17242,23 +17239,24 @@
         <f>R197/Q197</f>
         <v>1.2000000000000001E-3</v>
       </c>
-      <c r="U197" t="s">
-        <v>37</v>
+      <c r="T197">
+        <v>724</v>
+      </c>
+      <c r="U197">
+        <v>2.1</v>
       </c>
       <c r="V197" t="s">
-        <v>37</v>
-      </c>
-      <c r="W197" t="s">
-        <v>37</v>
-      </c>
-      <c r="X197" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y197" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="198" spans="1:25" x14ac:dyDescent="0.75">
+        <v>39</v>
+      </c>
+      <c r="W197">
+        <v>5</v>
+      </c>
+      <c r="X197">
+        <f>U197/W197</f>
+        <v>0.42000000000000004</v>
+      </c>
+    </row>
+    <row r="198" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A198" t="s">
         <v>382</v>
       </c>
@@ -17318,24 +17316,24 @@
         <f>R198/Q198</f>
         <v>1.9000000000000001E-5</v>
       </c>
+      <c r="T198">
+        <v>8.1</v>
+      </c>
       <c r="U198">
-        <v>724</v>
-      </c>
-      <c r="V198">
-        <v>2.1</v>
-      </c>
-      <c r="W198" t="s">
+        <v>0.185</v>
+      </c>
+      <c r="V198" t="s">
         <v>39</v>
       </c>
+      <c r="W198">
+        <v>5</v>
+      </c>
       <c r="X198">
-        <v>5</v>
-      </c>
-      <c r="Y198">
-        <f t="shared" si="2"/>
-        <v>0.42000000000000004</v>
-      </c>
-    </row>
-    <row r="199" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U198/W198</f>
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A199" t="s">
         <v>384</v>
       </c>
@@ -17395,29 +17393,29 @@
         <f>R199/Q199</f>
         <v>1E-4</v>
       </c>
+      <c r="T199">
+        <v>39</v>
+      </c>
       <c r="U199">
-        <v>8.1</v>
-      </c>
-      <c r="V199">
-        <v>0.185</v>
-      </c>
-      <c r="W199" t="s">
+        <v>5.34</v>
+      </c>
+      <c r="V199" t="s">
         <v>39</v>
       </c>
+      <c r="W199">
+        <v>5</v>
+      </c>
       <c r="X199">
-        <v>5</v>
-      </c>
-      <c r="Y199">
-        <f t="shared" ref="Y199:Y209" si="3">V199/X199</f>
-        <v>3.6999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="200" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U199/W199</f>
+        <v>1.0680000000000001</v>
+      </c>
+    </row>
+    <row r="200" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A200" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B200" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C200" t="s">
         <v>386</v>
@@ -17472,29 +17470,29 @@
         <f>R200/Q200</f>
         <v>7.9999999999999996E-6</v>
       </c>
+      <c r="T200">
+        <v>17</v>
+      </c>
       <c r="U200">
-        <v>39</v>
-      </c>
-      <c r="V200">
-        <v>5.34</v>
-      </c>
-      <c r="W200" t="s">
-        <v>39</v>
+        <v>1000</v>
+      </c>
+      <c r="V200" t="s">
+        <v>3</v>
+      </c>
+      <c r="W200">
+        <v>10</v>
       </c>
       <c r="X200">
-        <v>5</v>
-      </c>
-      <c r="Y200">
-        <f t="shared" si="3"/>
-        <v>1.0680000000000001</v>
-      </c>
-    </row>
-    <row r="201" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U200/W200</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="201" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A201" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B201" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C201" t="s">
         <v>387</v>
@@ -17549,24 +17547,24 @@
         <f>R201/Q201</f>
         <v>1.8E-3</v>
       </c>
+      <c r="T201">
+        <v>2</v>
+      </c>
       <c r="U201">
-        <v>17</v>
-      </c>
-      <c r="V201">
-        <v>1000</v>
-      </c>
-      <c r="W201" t="s">
-        <v>3</v>
+        <v>1.6</v>
+      </c>
+      <c r="V201" t="s">
+        <v>39</v>
+      </c>
+      <c r="W201">
+        <v>5</v>
       </c>
       <c r="X201">
-        <v>10</v>
-      </c>
-      <c r="Y201">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="202" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U201/W201</f>
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="202" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A202" t="s">
         <v>388</v>
       </c>
@@ -17626,29 +17624,29 @@
         <f>R202/Q202</f>
         <v>9.7999999999999997E-4</v>
       </c>
+      <c r="T202">
+        <v>6</v>
+      </c>
       <c r="U202">
-        <v>2</v>
-      </c>
-      <c r="V202">
-        <v>1.6</v>
-      </c>
-      <c r="W202" t="s">
-        <v>39</v>
+        <v>1000</v>
+      </c>
+      <c r="V202" t="s">
+        <v>3</v>
+      </c>
+      <c r="W202">
+        <v>10</v>
       </c>
       <c r="X202">
-        <v>5</v>
-      </c>
-      <c r="Y202">
-        <f t="shared" si="3"/>
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="203" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U202/W202</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="203" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A203" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B203" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C203" t="s">
         <v>390</v>
@@ -17702,29 +17700,28 @@
         <f>R203/Q203</f>
         <v>5.7499999999999999E-3</v>
       </c>
-      <c r="U203">
-        <v>6</v>
-      </c>
-      <c r="V203">
-        <v>1000</v>
+      <c r="T203" t="s">
+        <v>37</v>
+      </c>
+      <c r="U203" t="s">
+        <v>37</v>
+      </c>
+      <c r="V203" t="s">
+        <v>37</v>
       </c>
       <c r="W203" t="s">
-        <v>3</v>
-      </c>
-      <c r="X203">
-        <v>10</v>
-      </c>
-      <c r="Y203">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="204" spans="1:25" x14ac:dyDescent="0.75">
+        <v>37</v>
+      </c>
+      <c r="X203" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="204" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A204" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B204" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C204" t="s">
         <v>391</v>
@@ -17779,23 +17776,24 @@
         <f>R204/Q204</f>
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="U204" t="s">
-        <v>37</v>
+      <c r="T204">
+        <v>46</v>
+      </c>
+      <c r="U204">
+        <v>13.62</v>
       </c>
       <c r="V204" t="s">
-        <v>37</v>
-      </c>
-      <c r="W204" t="s">
-        <v>37</v>
-      </c>
-      <c r="X204" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y204" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="205" spans="1:25" x14ac:dyDescent="0.75">
+        <v>39</v>
+      </c>
+      <c r="W204">
+        <v>5</v>
+      </c>
+      <c r="X204">
+        <f>U204/W204</f>
+        <v>2.7239999999999998</v>
+      </c>
+    </row>
+    <row r="205" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A205" t="s">
         <v>392</v>
       </c>
@@ -17855,24 +17853,24 @@
         <f>R205/Q205</f>
         <v>1.6200000000000001E-3</v>
       </c>
+      <c r="T205">
+        <v>130</v>
+      </c>
       <c r="U205">
-        <v>46</v>
-      </c>
-      <c r="V205">
-        <v>13.62</v>
-      </c>
-      <c r="W205" t="s">
+        <v>250</v>
+      </c>
+      <c r="V205" t="s">
         <v>39</v>
       </c>
+      <c r="W205">
+        <v>5</v>
+      </c>
       <c r="X205">
-        <v>5</v>
-      </c>
-      <c r="Y205">
-        <f t="shared" si="3"/>
-        <v>2.7239999999999998</v>
-      </c>
-    </row>
-    <row r="206" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U205/W205</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="206" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A206" t="s">
         <v>394</v>
       </c>
@@ -17931,29 +17929,29 @@
       <c r="S206">
         <v>3.0000000000000001E-5</v>
       </c>
+      <c r="T206">
+        <v>1.69</v>
+      </c>
       <c r="U206">
-        <v>130</v>
-      </c>
-      <c r="V206">
-        <v>250</v>
-      </c>
-      <c r="W206" t="s">
+        <v>3.5</v>
+      </c>
+      <c r="V206" t="s">
         <v>39</v>
       </c>
+      <c r="W206">
+        <v>5</v>
+      </c>
       <c r="X206">
-        <v>5</v>
-      </c>
-      <c r="Y206">
-        <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="207" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U206/W206</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="207" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A207" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B207" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C207" t="s">
         <v>396</v>
@@ -18006,29 +18004,29 @@
       <c r="S207">
         <v>6.4000000000000001E-2</v>
       </c>
+      <c r="T207">
+        <v>70</v>
+      </c>
       <c r="U207">
-        <v>1.69</v>
-      </c>
-      <c r="V207">
-        <v>3.5</v>
-      </c>
-      <c r="W207" t="s">
-        <v>39</v>
+        <v>1000</v>
+      </c>
+      <c r="V207" t="s">
+        <v>3</v>
+      </c>
+      <c r="W207">
+        <v>10</v>
       </c>
       <c r="X207">
-        <v>5</v>
-      </c>
-      <c r="Y207">
-        <f t="shared" si="3"/>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="208" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U207/W207</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="208" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A208" t="s">
-        <v>478</v>
+        <v>404</v>
       </c>
       <c r="B208" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="C208" t="s">
         <v>43</v>
@@ -18082,29 +18080,29 @@
       <c r="S208">
         <v>2.7199999999999998</v>
       </c>
+      <c r="T208">
+        <v>28.8</v>
+      </c>
       <c r="U208">
-        <v>70</v>
-      </c>
-      <c r="V208">
-        <v>1000</v>
-      </c>
-      <c r="W208" t="s">
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="V208" t="s">
+        <v>39</v>
+      </c>
+      <c r="W208">
+        <v>5</v>
       </c>
       <c r="X208">
-        <v>10</v>
-      </c>
-      <c r="Y208">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="209" spans="1:25" x14ac:dyDescent="0.75">
+        <f>U208/W208</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A209" t="s">
-        <v>477</v>
+        <v>403</v>
       </c>
       <c r="B209" t="s">
-        <v>477</v>
+        <v>551</v>
       </c>
       <c r="C209" t="s">
         <v>397</v>
@@ -18158,27 +18156,24 @@
       <c r="S209">
         <v>4.0000000000000003E-5</v>
       </c>
+      <c r="T209">
+        <v>6</v>
+      </c>
       <c r="U209">
-        <v>6</v>
-      </c>
-      <c r="V209">
         <v>66.7</v>
       </c>
-      <c r="W209" t="s">
+      <c r="V209" t="s">
         <v>39</v>
       </c>
+      <c r="W209">
+        <v>5</v>
+      </c>
       <c r="X209">
-        <v>5</v>
-      </c>
-      <c r="Y209">
-        <f t="shared" si="3"/>
+        <f>U209/W209</f>
         <v>13.34</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S209">
-    <sortCondition ref="A1:A209"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
